--- a/SEMI 字节数组记录.xlsx
+++ b/SEMI 字节数组记录.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZerosZhang\Documents\斯康泰工作区\草稿文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65164B9-67F6-4F7C-86F9-A316B035167B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869DB688-8B1A-4FC5-A30A-B0136EFBBED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="4905" windowWidth="28800" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10305" yWindow="3165" windowWidth="28800" windowHeight="15345" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control Message" sheetId="1" r:id="rId1"/>
     <sheet name="Stream 1" sheetId="2" r:id="rId2"/>
     <sheet name="Stream 2" sheetId="3" r:id="rId3"/>
     <sheet name="Stream 5" sheetId="4" r:id="rId4"/>
+    <sheet name="Secs数据" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>S1F13</t>
   </si>
@@ -129,12 +130,40 @@
     <t>S5F6</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式化ASCII数据：ABC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3字节</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式化Int32数据：100，200</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8字节</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,8 +203,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="HarmonyOS Sans SC"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,8 +258,44 @@
         <fgColor rgb="FF4472C4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -345,11 +417,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -409,58 +570,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -478,16 +591,10 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -497,6 +604,96 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -831,97 +1028,97 @@
   <sheetData>
     <row r="1" spans="1:73" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="23" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24" t="s">
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="23" t="s">
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="24" t="s">
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="24"/>
-      <c r="BD1" s="23" t="s">
+      <c r="AV1" s="42"/>
+      <c r="AW1" s="42"/>
+      <c r="AX1" s="42"/>
+      <c r="AY1" s="42"/>
+      <c r="AZ1" s="42"/>
+      <c r="BA1" s="42"/>
+      <c r="BB1" s="42"/>
+      <c r="BC1" s="42"/>
+      <c r="BD1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="24"/>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="24"/>
-      <c r="BI1" s="24"/>
-      <c r="BJ1" s="24"/>
-      <c r="BK1" s="24"/>
-      <c r="BL1" s="24"/>
-      <c r="BM1" s="24" t="s">
+      <c r="BE1" s="42"/>
+      <c r="BF1" s="42"/>
+      <c r="BG1" s="42"/>
+      <c r="BH1" s="42"/>
+      <c r="BI1" s="42"/>
+      <c r="BJ1" s="42"/>
+      <c r="BK1" s="42"/>
+      <c r="BL1" s="42"/>
+      <c r="BM1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="BN1" s="24"/>
-      <c r="BO1" s="24"/>
-      <c r="BP1" s="24"/>
-      <c r="BQ1" s="24"/>
-      <c r="BR1" s="24"/>
-      <c r="BS1" s="24"/>
-      <c r="BT1" s="24"/>
-      <c r="BU1" s="24"/>
+      <c r="BN1" s="42"/>
+      <c r="BO1" s="42"/>
+      <c r="BP1" s="42"/>
+      <c r="BQ1" s="42"/>
+      <c r="BR1" s="42"/>
+      <c r="BS1" s="42"/>
+      <c r="BT1" s="42"/>
+      <c r="BU1" s="42"/>
     </row>
     <row r="2" spans="1:73" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1">
@@ -948,7 +1145,7 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="J2" s="27">
+      <c r="J2" s="43">
         <v>10</v>
       </c>
       <c r="K2" s="1">
@@ -975,7 +1172,7 @@
       <c r="R2" s="1">
         <v>0</v>
       </c>
-      <c r="S2" s="27">
+      <c r="S2" s="43">
         <v>10</v>
       </c>
       <c r="T2" s="1">
@@ -1002,7 +1199,7 @@
       <c r="AA2" s="1">
         <v>0</v>
       </c>
-      <c r="AB2" s="27">
+      <c r="AB2" s="43">
         <v>10</v>
       </c>
       <c r="AC2" s="1">
@@ -1029,7 +1226,7 @@
       <c r="AJ2" s="1">
         <v>0</v>
       </c>
-      <c r="AK2" s="27">
+      <c r="AK2" s="43">
         <v>10</v>
       </c>
       <c r="AL2" s="1">
@@ -1056,7 +1253,7 @@
       <c r="AS2" s="1">
         <v>0</v>
       </c>
-      <c r="AT2" s="27">
+      <c r="AT2" s="43">
         <v>10</v>
       </c>
       <c r="AU2" s="1">
@@ -1083,7 +1280,7 @@
       <c r="BB2" s="1">
         <v>0</v>
       </c>
-      <c r="BC2" s="27">
+      <c r="BC2" s="43">
         <v>10</v>
       </c>
       <c r="BD2" s="1">
@@ -1110,7 +1307,7 @@
       <c r="BK2" s="1">
         <v>0</v>
       </c>
-      <c r="BL2" s="27">
+      <c r="BL2" s="43">
         <v>10</v>
       </c>
       <c r="BM2" s="1">
@@ -1137,12 +1334,12 @@
       <c r="BT2" s="1">
         <v>0</v>
       </c>
-      <c r="BU2" s="27">
+      <c r="BU2" s="43">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:73" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="1">
         <v>0</v>
       </c>
@@ -1167,7 +1364,7 @@
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="28"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="1">
         <v>0</v>
       </c>
@@ -1192,7 +1389,7 @@
       <c r="R3" s="1">
         <v>0</v>
       </c>
-      <c r="S3" s="28"/>
+      <c r="S3" s="44"/>
       <c r="T3" s="1">
         <v>0</v>
       </c>
@@ -1217,7 +1414,7 @@
       <c r="AA3" s="1">
         <v>0</v>
       </c>
-      <c r="AB3" s="28"/>
+      <c r="AB3" s="44"/>
       <c r="AC3" s="1">
         <v>0</v>
       </c>
@@ -1242,7 +1439,7 @@
       <c r="AJ3" s="1">
         <v>0</v>
       </c>
-      <c r="AK3" s="28"/>
+      <c r="AK3" s="44"/>
       <c r="AL3" s="1">
         <v>0</v>
       </c>
@@ -1267,7 +1464,7 @@
       <c r="AS3" s="1">
         <v>0</v>
       </c>
-      <c r="AT3" s="28"/>
+      <c r="AT3" s="44"/>
       <c r="AU3" s="1">
         <v>0</v>
       </c>
@@ -1292,7 +1489,7 @@
       <c r="BB3" s="1">
         <v>0</v>
       </c>
-      <c r="BC3" s="28"/>
+      <c r="BC3" s="44"/>
       <c r="BD3" s="1">
         <v>0</v>
       </c>
@@ -1317,7 +1514,7 @@
       <c r="BK3" s="1">
         <v>0</v>
       </c>
-      <c r="BL3" s="28"/>
+      <c r="BL3" s="44"/>
       <c r="BM3" s="1">
         <v>0</v>
       </c>
@@ -1342,10 +1539,10 @@
       <c r="BT3" s="1">
         <v>0</v>
       </c>
-      <c r="BU3" s="28"/>
+      <c r="BU3" s="44"/>
     </row>
     <row r="4" spans="1:73" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="1">
         <v>0</v>
       </c>
@@ -1370,7 +1567,7 @@
       <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="28"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="1">
         <v>0</v>
       </c>
@@ -1395,7 +1592,7 @@
       <c r="R4" s="1">
         <v>0</v>
       </c>
-      <c r="S4" s="28"/>
+      <c r="S4" s="44"/>
       <c r="T4" s="1">
         <v>0</v>
       </c>
@@ -1420,7 +1617,7 @@
       <c r="AA4" s="1">
         <v>0</v>
       </c>
-      <c r="AB4" s="28"/>
+      <c r="AB4" s="44"/>
       <c r="AC4" s="1">
         <v>0</v>
       </c>
@@ -1445,7 +1642,7 @@
       <c r="AJ4" s="1">
         <v>0</v>
       </c>
-      <c r="AK4" s="28"/>
+      <c r="AK4" s="44"/>
       <c r="AL4" s="1">
         <v>0</v>
       </c>
@@ -1470,7 +1667,7 @@
       <c r="AS4" s="1">
         <v>0</v>
       </c>
-      <c r="AT4" s="28"/>
+      <c r="AT4" s="44"/>
       <c r="AU4" s="1">
         <v>0</v>
       </c>
@@ -1495,7 +1692,7 @@
       <c r="BB4" s="1">
         <v>0</v>
       </c>
-      <c r="BC4" s="28"/>
+      <c r="BC4" s="44"/>
       <c r="BD4" s="1">
         <v>0</v>
       </c>
@@ -1520,7 +1717,7 @@
       <c r="BK4" s="1">
         <v>0</v>
       </c>
-      <c r="BL4" s="28"/>
+      <c r="BL4" s="44"/>
       <c r="BM4" s="1">
         <v>0</v>
       </c>
@@ -1545,10 +1742,10 @@
       <c r="BT4" s="1">
         <v>0</v>
       </c>
-      <c r="BU4" s="28"/>
+      <c r="BU4" s="44"/>
     </row>
     <row r="5" spans="1:73" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="1">
         <v>0</v>
       </c>
@@ -1573,7 +1770,7 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="28"/>
+      <c r="J5" s="44"/>
       <c r="K5" s="1">
         <v>0</v>
       </c>
@@ -1598,7 +1795,7 @@
       <c r="R5" s="1">
         <v>0</v>
       </c>
-      <c r="S5" s="28"/>
+      <c r="S5" s="44"/>
       <c r="T5" s="1">
         <v>0</v>
       </c>
@@ -1623,7 +1820,7 @@
       <c r="AA5" s="1">
         <v>0</v>
       </c>
-      <c r="AB5" s="28"/>
+      <c r="AB5" s="44"/>
       <c r="AC5" s="1">
         <v>0</v>
       </c>
@@ -1648,7 +1845,7 @@
       <c r="AJ5" s="1">
         <v>0</v>
       </c>
-      <c r="AK5" s="28"/>
+      <c r="AK5" s="44"/>
       <c r="AL5" s="1">
         <v>0</v>
       </c>
@@ -1673,7 +1870,7 @@
       <c r="AS5" s="1">
         <v>0</v>
       </c>
-      <c r="AT5" s="28"/>
+      <c r="AT5" s="44"/>
       <c r="AU5" s="1">
         <v>0</v>
       </c>
@@ -1698,7 +1895,7 @@
       <c r="BB5" s="1">
         <v>0</v>
       </c>
-      <c r="BC5" s="28"/>
+      <c r="BC5" s="44"/>
       <c r="BD5" s="1">
         <v>0</v>
       </c>
@@ -1723,7 +1920,7 @@
       <c r="BK5" s="1">
         <v>0</v>
       </c>
-      <c r="BL5" s="28"/>
+      <c r="BL5" s="44"/>
       <c r="BM5" s="1">
         <v>0</v>
       </c>
@@ -1748,10 +1945,10 @@
       <c r="BT5" s="1">
         <v>0</v>
       </c>
-      <c r="BU5" s="28"/>
+      <c r="BU5" s="44"/>
     </row>
     <row r="6" spans="1:73" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="41" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="8">
@@ -1778,7 +1975,7 @@
       <c r="I6" s="8">
         <v>1</v>
       </c>
-      <c r="J6" s="30"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="8">
         <v>1</v>
       </c>
@@ -1803,7 +2000,7 @@
       <c r="R6" s="8">
         <v>1</v>
       </c>
-      <c r="S6" s="30" t="s">
+      <c r="S6" s="35" t="s">
         <v>18</v>
       </c>
       <c r="T6" s="8">
@@ -1830,7 +2027,7 @@
       <c r="AA6" s="8">
         <v>1</v>
       </c>
-      <c r="AB6" s="30" t="s">
+      <c r="AB6" s="35" t="s">
         <v>18</v>
       </c>
       <c r="AC6" s="8">
@@ -1857,7 +2054,7 @@
       <c r="AJ6" s="8">
         <v>1</v>
       </c>
-      <c r="AK6" s="30" t="s">
+      <c r="AK6" s="35" t="s">
         <v>19</v>
       </c>
       <c r="AL6" s="8">
@@ -1884,7 +2081,7 @@
       <c r="AS6" s="8">
         <v>1</v>
       </c>
-      <c r="AT6" s="30" t="s">
+      <c r="AT6" s="35" t="s">
         <v>20</v>
       </c>
       <c r="AU6" s="8">
@@ -1911,7 +2108,7 @@
       <c r="BB6" s="8">
         <v>1</v>
       </c>
-      <c r="BC6" s="30" t="s">
+      <c r="BC6" s="35" t="s">
         <v>20</v>
       </c>
       <c r="BD6" s="8">
@@ -1938,7 +2135,7 @@
       <c r="BK6" s="8">
         <v>1</v>
       </c>
-      <c r="BL6" s="30" t="s">
+      <c r="BL6" s="35" t="s">
         <v>21</v>
       </c>
       <c r="BM6" s="8">
@@ -1965,10 +2162,10 @@
       <c r="BT6" s="8">
         <v>1</v>
       </c>
-      <c r="BU6" s="30"/>
+      <c r="BU6" s="35"/>
     </row>
     <row r="7" spans="1:73" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="8">
         <v>1</v>
       </c>
@@ -1993,7 +2190,7 @@
       <c r="I7" s="8">
         <v>1</v>
       </c>
-      <c r="J7" s="31"/>
+      <c r="J7" s="36"/>
       <c r="K7" s="8">
         <v>1</v>
       </c>
@@ -2018,7 +2215,7 @@
       <c r="R7" s="8">
         <v>1</v>
       </c>
-      <c r="S7" s="31"/>
+      <c r="S7" s="36"/>
       <c r="T7" s="8">
         <v>1</v>
       </c>
@@ -2043,7 +2240,7 @@
       <c r="AA7" s="8">
         <v>1</v>
       </c>
-      <c r="AB7" s="31"/>
+      <c r="AB7" s="36"/>
       <c r="AC7" s="8">
         <v>1</v>
       </c>
@@ -2068,7 +2265,7 @@
       <c r="AJ7" s="8">
         <v>1</v>
       </c>
-      <c r="AK7" s="31"/>
+      <c r="AK7" s="36"/>
       <c r="AL7" s="8">
         <v>1</v>
       </c>
@@ -2093,7 +2290,7 @@
       <c r="AS7" s="8">
         <v>1</v>
       </c>
-      <c r="AT7" s="31"/>
+      <c r="AT7" s="36"/>
       <c r="AU7" s="8">
         <v>1</v>
       </c>
@@ -2118,7 +2315,7 @@
       <c r="BB7" s="8">
         <v>1</v>
       </c>
-      <c r="BC7" s="31"/>
+      <c r="BC7" s="36"/>
       <c r="BD7" s="8">
         <v>1</v>
       </c>
@@ -2143,7 +2340,7 @@
       <c r="BK7" s="8">
         <v>1</v>
       </c>
-      <c r="BL7" s="31"/>
+      <c r="BL7" s="36"/>
       <c r="BM7" s="8">
         <v>1</v>
       </c>
@@ -2168,7 +2365,7 @@
       <c r="BT7" s="8">
         <v>1</v>
       </c>
-      <c r="BU7" s="31"/>
+      <c r="BU7" s="36"/>
     </row>
     <row r="8" spans="1:73" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
@@ -3055,7 +3252,7 @@
       </c>
     </row>
     <row r="12" spans="1:73" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="37" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="2">
@@ -3082,7 +3279,7 @@
       <c r="I12" s="2">
         <v>0</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="39" t="s">
         <v>31</v>
       </c>
       <c r="K12" s="2">
@@ -3109,7 +3306,7 @@
       <c r="R12" s="2">
         <v>0</v>
       </c>
-      <c r="S12" s="32" t="s">
+      <c r="S12" s="39" t="s">
         <v>18</v>
       </c>
       <c r="T12" s="2">
@@ -3136,7 +3333,7 @@
       <c r="AA12" s="2">
         <v>0</v>
       </c>
-      <c r="AB12" s="32" t="s">
+      <c r="AB12" s="39" t="s">
         <v>31</v>
       </c>
       <c r="AC12" s="2">
@@ -3163,7 +3360,7 @@
       <c r="AJ12" s="2">
         <v>0</v>
       </c>
-      <c r="AK12" s="32" t="s">
+      <c r="AK12" s="39" t="s">
         <v>19</v>
       </c>
       <c r="AL12" s="2">
@@ -3190,7 +3387,7 @@
       <c r="AS12" s="2">
         <v>0</v>
       </c>
-      <c r="AT12" s="32" t="s">
+      <c r="AT12" s="39" t="s">
         <v>31</v>
       </c>
       <c r="AU12" s="2">
@@ -3217,7 +3414,7 @@
       <c r="BB12" s="2">
         <v>0</v>
       </c>
-      <c r="BC12" s="32" t="s">
+      <c r="BC12" s="39" t="s">
         <v>32</v>
       </c>
       <c r="BD12" s="2">
@@ -3244,7 +3441,7 @@
       <c r="BK12" s="2">
         <v>0</v>
       </c>
-      <c r="BL12" s="32" t="s">
+      <c r="BL12" s="39" t="s">
         <v>21</v>
       </c>
       <c r="BM12" s="2">
@@ -3271,12 +3468,12 @@
       <c r="BT12" s="2">
         <v>0</v>
       </c>
-      <c r="BU12" s="32" t="s">
+      <c r="BU12" s="39" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:73" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="2">
         <v>0</v>
       </c>
@@ -3301,7 +3498,7 @@
       <c r="I13" s="2">
         <v>0</v>
       </c>
-      <c r="J13" s="23"/>
+      <c r="J13" s="40"/>
       <c r="K13" s="2">
         <v>0</v>
       </c>
@@ -3326,7 +3523,7 @@
       <c r="R13" s="2">
         <v>0</v>
       </c>
-      <c r="S13" s="23"/>
+      <c r="S13" s="40"/>
       <c r="T13" s="2">
         <v>0</v>
       </c>
@@ -3351,7 +3548,7 @@
       <c r="AA13" s="2">
         <v>0</v>
       </c>
-      <c r="AB13" s="23"/>
+      <c r="AB13" s="40"/>
       <c r="AC13" s="2">
         <v>0</v>
       </c>
@@ -3376,7 +3573,7 @@
       <c r="AJ13" s="2">
         <v>0</v>
       </c>
-      <c r="AK13" s="23"/>
+      <c r="AK13" s="40"/>
       <c r="AL13" s="2">
         <v>0</v>
       </c>
@@ -3401,7 +3598,7 @@
       <c r="AS13" s="2">
         <v>0</v>
       </c>
-      <c r="AT13" s="23"/>
+      <c r="AT13" s="40"/>
       <c r="AU13" s="2">
         <v>0</v>
       </c>
@@ -3426,7 +3623,7 @@
       <c r="BB13" s="2">
         <v>0</v>
       </c>
-      <c r="BC13" s="23"/>
+      <c r="BC13" s="40"/>
       <c r="BD13" s="2">
         <v>0</v>
       </c>
@@ -3451,7 +3648,7 @@
       <c r="BK13" s="2">
         <v>0</v>
       </c>
-      <c r="BL13" s="23"/>
+      <c r="BL13" s="40"/>
       <c r="BM13" s="2">
         <v>0</v>
       </c>
@@ -3476,10 +3673,10 @@
       <c r="BT13" s="2">
         <v>0</v>
       </c>
-      <c r="BU13" s="23"/>
+      <c r="BU13" s="40"/>
     </row>
     <row r="14" spans="1:73" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="2">
         <v>0</v>
       </c>
@@ -3504,7 +3701,7 @@
       <c r="I14" s="2">
         <v>0</v>
       </c>
-      <c r="J14" s="23"/>
+      <c r="J14" s="40"/>
       <c r="K14" s="2">
         <v>0</v>
       </c>
@@ -3529,7 +3726,7 @@
       <c r="R14" s="2">
         <v>0</v>
       </c>
-      <c r="S14" s="23"/>
+      <c r="S14" s="40"/>
       <c r="T14" s="2">
         <v>0</v>
       </c>
@@ -3554,7 +3751,7 @@
       <c r="AA14" s="2">
         <v>0</v>
       </c>
-      <c r="AB14" s="23"/>
+      <c r="AB14" s="40"/>
       <c r="AC14" s="2">
         <v>0</v>
       </c>
@@ -3579,7 +3776,7 @@
       <c r="AJ14" s="2">
         <v>0</v>
       </c>
-      <c r="AK14" s="23"/>
+      <c r="AK14" s="40"/>
       <c r="AL14" s="2">
         <v>0</v>
       </c>
@@ -3604,7 +3801,7 @@
       <c r="AS14" s="2">
         <v>0</v>
       </c>
-      <c r="AT14" s="23"/>
+      <c r="AT14" s="40"/>
       <c r="AU14" s="2">
         <v>0</v>
       </c>
@@ -3629,7 +3826,7 @@
       <c r="BB14" s="2">
         <v>0</v>
       </c>
-      <c r="BC14" s="23"/>
+      <c r="BC14" s="40"/>
       <c r="BD14" s="2">
         <v>0</v>
       </c>
@@ -3654,7 +3851,7 @@
       <c r="BK14" s="2">
         <v>0</v>
       </c>
-      <c r="BL14" s="23"/>
+      <c r="BL14" s="40"/>
       <c r="BM14" s="2">
         <v>0</v>
       </c>
@@ -3679,10 +3876,10 @@
       <c r="BT14" s="2">
         <v>0</v>
       </c>
-      <c r="BU14" s="23"/>
+      <c r="BU14" s="40"/>
     </row>
     <row r="15" spans="1:73" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="2">
         <v>0</v>
       </c>
@@ -3707,7 +3904,7 @@
       <c r="I15" s="2">
         <v>1</v>
       </c>
-      <c r="J15" s="23"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="2">
         <v>0</v>
       </c>
@@ -3732,7 +3929,7 @@
       <c r="R15" s="2">
         <v>1</v>
       </c>
-      <c r="S15" s="23"/>
+      <c r="S15" s="40"/>
       <c r="T15" s="2">
         <v>0</v>
       </c>
@@ -3757,7 +3954,7 @@
       <c r="AA15" s="2">
         <v>0</v>
       </c>
-      <c r="AB15" s="23"/>
+      <c r="AB15" s="40"/>
       <c r="AC15" s="2">
         <v>0</v>
       </c>
@@ -3782,7 +3979,7 @@
       <c r="AJ15" s="2">
         <v>0</v>
       </c>
-      <c r="AK15" s="23"/>
+      <c r="AK15" s="40"/>
       <c r="AL15" s="2">
         <v>0</v>
       </c>
@@ -3807,7 +4004,7 @@
       <c r="AS15" s="2">
         <v>0</v>
       </c>
-      <c r="AT15" s="23"/>
+      <c r="AT15" s="40"/>
       <c r="AU15" s="2">
         <v>0</v>
       </c>
@@ -3832,7 +4029,7 @@
       <c r="BB15" s="2">
         <v>0</v>
       </c>
-      <c r="BC15" s="23"/>
+      <c r="BC15" s="40"/>
       <c r="BD15" s="2">
         <v>0</v>
       </c>
@@ -3857,7 +4054,7 @@
       <c r="BK15" s="2">
         <v>0</v>
       </c>
-      <c r="BL15" s="23"/>
+      <c r="BL15" s="40"/>
       <c r="BM15" s="2">
         <v>0</v>
       </c>
@@ -3882,7 +4079,7 @@
       <c r="BT15" s="2">
         <v>0</v>
       </c>
-      <c r="BU15" s="23"/>
+      <c r="BU15" s="40"/>
     </row>
     <row r="16" spans="1:73" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
@@ -6136,6 +6333,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AK1"/>
+    <mergeCell ref="AL1:AT1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="AB2:AB5"/>
+    <mergeCell ref="AK2:AK5"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AU1:BC1"/>
+    <mergeCell ref="BD1:BL1"/>
+    <mergeCell ref="BM1:BU1"/>
+    <mergeCell ref="AT2:AT5"/>
+    <mergeCell ref="BC2:BC5"/>
+    <mergeCell ref="BL2:BL5"/>
+    <mergeCell ref="BU2:BU5"/>
     <mergeCell ref="AT6:AT7"/>
     <mergeCell ref="BC6:BC7"/>
     <mergeCell ref="BL6:BL7"/>
@@ -6152,25 +6368,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="S6:S7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AU1:BC1"/>
-    <mergeCell ref="BD1:BL1"/>
-    <mergeCell ref="BM1:BU1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="AB2:AB5"/>
-    <mergeCell ref="AK2:AK5"/>
-    <mergeCell ref="AT2:AT5"/>
-    <mergeCell ref="BC2:BC5"/>
-    <mergeCell ref="BL2:BL5"/>
-    <mergeCell ref="BU2:BU5"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="AC1:AK1"/>
-    <mergeCell ref="AL1:AT1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6191,11 +6388,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="3.125" style="52" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="52" bestFit="1" customWidth="1"/>
-    <col min="10" max="17" width="3.125" style="52" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.625" style="52" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="36"/>
+    <col min="1" max="8" width="3.125" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="3.125" style="34" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6223,55 +6420,55 @@
       <c r="R1" s="46"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37">
-        <v>0</v>
-      </c>
-      <c r="B2" s="37">
-        <v>0</v>
-      </c>
-      <c r="C2" s="37">
-        <v>0</v>
-      </c>
-      <c r="D2" s="37">
-        <v>0</v>
-      </c>
-      <c r="E2" s="37">
-        <v>0</v>
-      </c>
-      <c r="F2" s="37">
-        <v>0</v>
-      </c>
-      <c r="G2" s="37">
-        <v>0</v>
-      </c>
-      <c r="H2" s="37">
+      <c r="A2" s="24">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24">
+        <v>0</v>
+      </c>
+      <c r="D2" s="24">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24">
+        <v>0</v>
+      </c>
+      <c r="F2" s="24">
+        <v>0</v>
+      </c>
+      <c r="G2" s="24">
+        <v>0</v>
+      </c>
+      <c r="H2" s="24">
         <v>0</v>
       </c>
       <c r="I2" s="46">
         <v>12</v>
       </c>
-      <c r="J2" s="37">
-        <v>0</v>
-      </c>
-      <c r="K2" s="37">
-        <v>0</v>
-      </c>
-      <c r="L2" s="37">
-        <v>0</v>
-      </c>
-      <c r="M2" s="37">
-        <v>0</v>
-      </c>
-      <c r="N2" s="37">
-        <v>0</v>
-      </c>
-      <c r="O2" s="37">
-        <v>0</v>
-      </c>
-      <c r="P2" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="37">
+      <c r="J2" s="24">
+        <v>0</v>
+      </c>
+      <c r="K2" s="24">
+        <v>0</v>
+      </c>
+      <c r="L2" s="24">
+        <v>0</v>
+      </c>
+      <c r="M2" s="24">
+        <v>0</v>
+      </c>
+      <c r="N2" s="24">
+        <v>0</v>
+      </c>
+      <c r="O2" s="24">
+        <v>0</v>
+      </c>
+      <c r="P2" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="24">
         <v>0</v>
       </c>
       <c r="R2" s="46">
@@ -6279,211 +6476,211 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="37">
-        <v>0</v>
-      </c>
-      <c r="B3" s="37">
-        <v>0</v>
-      </c>
-      <c r="C3" s="37">
-        <v>0</v>
-      </c>
-      <c r="D3" s="37">
-        <v>0</v>
-      </c>
-      <c r="E3" s="37">
-        <v>0</v>
-      </c>
-      <c r="F3" s="37">
-        <v>0</v>
-      </c>
-      <c r="G3" s="37">
-        <v>0</v>
-      </c>
-      <c r="H3" s="37">
+      <c r="A3" s="24">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24">
+        <v>0</v>
+      </c>
+      <c r="E3" s="24">
+        <v>0</v>
+      </c>
+      <c r="F3" s="24">
+        <v>0</v>
+      </c>
+      <c r="G3" s="24">
+        <v>0</v>
+      </c>
+      <c r="H3" s="24">
         <v>0</v>
       </c>
       <c r="I3" s="46"/>
-      <c r="J3" s="37">
-        <v>0</v>
-      </c>
-      <c r="K3" s="37">
-        <v>0</v>
-      </c>
-      <c r="L3" s="37">
-        <v>0</v>
-      </c>
-      <c r="M3" s="37">
-        <v>0</v>
-      </c>
-      <c r="N3" s="37">
-        <v>0</v>
-      </c>
-      <c r="O3" s="37">
-        <v>0</v>
-      </c>
-      <c r="P3" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="37">
+      <c r="J3" s="24">
+        <v>0</v>
+      </c>
+      <c r="K3" s="24">
+        <v>0</v>
+      </c>
+      <c r="L3" s="24">
+        <v>0</v>
+      </c>
+      <c r="M3" s="24">
+        <v>0</v>
+      </c>
+      <c r="N3" s="24">
+        <v>0</v>
+      </c>
+      <c r="O3" s="24">
+        <v>0</v>
+      </c>
+      <c r="P3" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="24">
         <v>0</v>
       </c>
       <c r="R3" s="46"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="37">
-        <v>0</v>
-      </c>
-      <c r="B4" s="37">
-        <v>0</v>
-      </c>
-      <c r="C4" s="37">
-        <v>0</v>
-      </c>
-      <c r="D4" s="37">
-        <v>0</v>
-      </c>
-      <c r="E4" s="37">
-        <v>0</v>
-      </c>
-      <c r="F4" s="37">
-        <v>0</v>
-      </c>
-      <c r="G4" s="37">
-        <v>0</v>
-      </c>
-      <c r="H4" s="37">
+      <c r="A4" s="24">
+        <v>0</v>
+      </c>
+      <c r="B4" s="24">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="24">
+        <v>0</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0</v>
+      </c>
+      <c r="H4" s="24">
         <v>0</v>
       </c>
       <c r="I4" s="46"/>
-      <c r="J4" s="37">
-        <v>0</v>
-      </c>
-      <c r="K4" s="37">
-        <v>0</v>
-      </c>
-      <c r="L4" s="37">
-        <v>0</v>
-      </c>
-      <c r="M4" s="37">
-        <v>0</v>
-      </c>
-      <c r="N4" s="37">
-        <v>0</v>
-      </c>
-      <c r="O4" s="37">
-        <v>0</v>
-      </c>
-      <c r="P4" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="37">
+      <c r="J4" s="24">
+        <v>0</v>
+      </c>
+      <c r="K4" s="24">
+        <v>0</v>
+      </c>
+      <c r="L4" s="24">
+        <v>0</v>
+      </c>
+      <c r="M4" s="24">
+        <v>0</v>
+      </c>
+      <c r="N4" s="24">
+        <v>0</v>
+      </c>
+      <c r="O4" s="24">
+        <v>0</v>
+      </c>
+      <c r="P4" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="24">
         <v>0</v>
       </c>
       <c r="R4" s="46"/>
     </row>
     <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="37">
-        <v>0</v>
-      </c>
-      <c r="B5" s="37">
-        <v>0</v>
-      </c>
-      <c r="C5" s="37">
-        <v>0</v>
-      </c>
-      <c r="D5" s="37">
-        <v>0</v>
-      </c>
-      <c r="E5" s="37">
-        <v>1</v>
-      </c>
-      <c r="F5" s="37">
-        <v>1</v>
-      </c>
-      <c r="G5" s="37">
-        <v>0</v>
-      </c>
-      <c r="H5" s="37">
+      <c r="A5" s="24">
+        <v>0</v>
+      </c>
+      <c r="B5" s="24">
+        <v>0</v>
+      </c>
+      <c r="C5" s="24">
+        <v>0</v>
+      </c>
+      <c r="D5" s="24">
+        <v>0</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24">
+        <v>1</v>
+      </c>
+      <c r="G5" s="24">
+        <v>0</v>
+      </c>
+      <c r="H5" s="24">
         <v>0</v>
       </c>
       <c r="I5" s="46"/>
-      <c r="J5" s="37">
-        <v>0</v>
-      </c>
-      <c r="K5" s="37">
-        <v>0</v>
-      </c>
-      <c r="L5" s="37">
-        <v>0</v>
-      </c>
-      <c r="M5" s="37">
-        <v>1</v>
-      </c>
-      <c r="N5" s="37">
-        <v>0</v>
-      </c>
-      <c r="O5" s="37">
-        <v>1</v>
-      </c>
-      <c r="P5" s="37">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="37">
+      <c r="J5" s="24">
+        <v>0</v>
+      </c>
+      <c r="K5" s="24">
+        <v>0</v>
+      </c>
+      <c r="L5" s="24">
+        <v>0</v>
+      </c>
+      <c r="M5" s="24">
+        <v>1</v>
+      </c>
+      <c r="N5" s="24">
+        <v>0</v>
+      </c>
+      <c r="O5" s="24">
+        <v>1</v>
+      </c>
+      <c r="P5" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="24">
         <v>1</v>
       </c>
       <c r="R5" s="46"/>
     </row>
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="41">
-        <v>0</v>
-      </c>
-      <c r="B6" s="41">
-        <v>1</v>
-      </c>
-      <c r="C6" s="41">
-        <v>1</v>
-      </c>
-      <c r="D6" s="41">
-        <v>1</v>
-      </c>
-      <c r="E6" s="41">
-        <v>1</v>
-      </c>
-      <c r="F6" s="41">
-        <v>1</v>
-      </c>
-      <c r="G6" s="41">
-        <v>1</v>
-      </c>
-      <c r="H6" s="41">
+      <c r="A6" s="25">
+        <v>0</v>
+      </c>
+      <c r="B6" s="25">
+        <v>1</v>
+      </c>
+      <c r="C6" s="25">
+        <v>1</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25">
+        <v>1</v>
+      </c>
+      <c r="G6" s="25">
+        <v>1</v>
+      </c>
+      <c r="H6" s="25">
         <v>1</v>
       </c>
       <c r="I6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="41">
-        <v>0</v>
-      </c>
-      <c r="K6" s="41">
-        <v>1</v>
-      </c>
-      <c r="L6" s="41">
-        <v>1</v>
-      </c>
-      <c r="M6" s="41">
-        <v>1</v>
-      </c>
-      <c r="N6" s="41">
-        <v>1</v>
-      </c>
-      <c r="O6" s="41">
-        <v>1</v>
-      </c>
-      <c r="P6" s="41">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="41">
+      <c r="J6" s="25">
+        <v>0</v>
+      </c>
+      <c r="K6" s="25">
+        <v>1</v>
+      </c>
+      <c r="L6" s="25">
+        <v>1</v>
+      </c>
+      <c r="M6" s="25">
+        <v>1</v>
+      </c>
+      <c r="N6" s="25">
+        <v>1</v>
+      </c>
+      <c r="O6" s="25">
+        <v>1</v>
+      </c>
+      <c r="P6" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="25">
         <v>1</v>
       </c>
       <c r="R6" s="46" t="s">
@@ -6491,107 +6688,107 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="41">
-        <v>1</v>
-      </c>
-      <c r="B7" s="41">
-        <v>1</v>
-      </c>
-      <c r="C7" s="41">
-        <v>1</v>
-      </c>
-      <c r="D7" s="41">
-        <v>1</v>
-      </c>
-      <c r="E7" s="41">
-        <v>1</v>
-      </c>
-      <c r="F7" s="41">
-        <v>1</v>
-      </c>
-      <c r="G7" s="41">
-        <v>1</v>
-      </c>
-      <c r="H7" s="41">
+      <c r="A7" s="25">
+        <v>1</v>
+      </c>
+      <c r="B7" s="25">
+        <v>1</v>
+      </c>
+      <c r="C7" s="25">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25">
+        <v>1</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25">
+        <v>1</v>
+      </c>
+      <c r="G7" s="25">
+        <v>1</v>
+      </c>
+      <c r="H7" s="25">
         <v>1</v>
       </c>
       <c r="I7" s="46"/>
-      <c r="J7" s="41">
-        <v>1</v>
-      </c>
-      <c r="K7" s="41">
-        <v>1</v>
-      </c>
-      <c r="L7" s="41">
-        <v>1</v>
-      </c>
-      <c r="M7" s="41">
-        <v>1</v>
-      </c>
-      <c r="N7" s="41">
-        <v>1</v>
-      </c>
-      <c r="O7" s="41">
-        <v>1</v>
-      </c>
-      <c r="P7" s="41">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="41">
+      <c r="J7" s="25">
+        <v>1</v>
+      </c>
+      <c r="K7" s="25">
+        <v>1</v>
+      </c>
+      <c r="L7" s="25">
+        <v>1</v>
+      </c>
+      <c r="M7" s="25">
+        <v>1</v>
+      </c>
+      <c r="N7" s="25">
+        <v>1</v>
+      </c>
+      <c r="O7" s="25">
+        <v>1</v>
+      </c>
+      <c r="P7" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="25">
         <v>1</v>
       </c>
       <c r="R7" s="46"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="41">
-        <v>1</v>
-      </c>
-      <c r="B8" s="41">
-        <v>0</v>
-      </c>
-      <c r="C8" s="41">
-        <v>0</v>
-      </c>
-      <c r="D8" s="41">
-        <v>0</v>
-      </c>
-      <c r="E8" s="41">
-        <v>0</v>
-      </c>
-      <c r="F8" s="41">
-        <v>0</v>
-      </c>
-      <c r="G8" s="41">
-        <v>0</v>
-      </c>
-      <c r="H8" s="41">
+      <c r="A8" s="25">
+        <v>1</v>
+      </c>
+      <c r="B8" s="25">
+        <v>0</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
         <v>1</v>
       </c>
       <c r="I8" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="41">
-        <v>0</v>
-      </c>
-      <c r="K8" s="41">
-        <v>0</v>
-      </c>
-      <c r="L8" s="41">
-        <v>0</v>
-      </c>
-      <c r="M8" s="41">
-        <v>0</v>
-      </c>
-      <c r="N8" s="41">
-        <v>0</v>
-      </c>
-      <c r="O8" s="41">
-        <v>0</v>
-      </c>
-      <c r="P8" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="41">
+      <c r="J8" s="25">
+        <v>0</v>
+      </c>
+      <c r="K8" s="25">
+        <v>0</v>
+      </c>
+      <c r="L8" s="25">
+        <v>0</v>
+      </c>
+      <c r="M8" s="25">
+        <v>0</v>
+      </c>
+      <c r="N8" s="25">
+        <v>0</v>
+      </c>
+      <c r="O8" s="25">
+        <v>0</v>
+      </c>
+      <c r="P8" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="25">
         <v>1</v>
       </c>
       <c r="R8" s="46" t="s">
@@ -6599,427 +6796,427 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="41">
-        <v>0</v>
-      </c>
-      <c r="B9" s="41">
-        <v>0</v>
-      </c>
-      <c r="C9" s="41">
-        <v>0</v>
-      </c>
-      <c r="D9" s="41">
-        <v>0</v>
-      </c>
-      <c r="E9" s="41">
-        <v>1</v>
-      </c>
-      <c r="F9" s="41">
-        <v>1</v>
-      </c>
-      <c r="G9" s="41">
-        <v>0</v>
-      </c>
-      <c r="H9" s="41">
+      <c r="A9" s="25">
+        <v>0</v>
+      </c>
+      <c r="B9" s="25">
+        <v>0</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0</v>
+      </c>
+      <c r="E9" s="25">
+        <v>1</v>
+      </c>
+      <c r="F9" s="25">
+        <v>1</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25">
         <v>1</v>
       </c>
       <c r="I9" s="46"/>
-      <c r="J9" s="41">
-        <v>0</v>
-      </c>
-      <c r="K9" s="41">
-        <v>0</v>
-      </c>
-      <c r="L9" s="41">
-        <v>0</v>
-      </c>
-      <c r="M9" s="41">
-        <v>0</v>
-      </c>
-      <c r="N9" s="41">
-        <v>1</v>
-      </c>
-      <c r="O9" s="41">
-        <v>1</v>
-      </c>
-      <c r="P9" s="41">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="41">
+      <c r="J9" s="25">
+        <v>0</v>
+      </c>
+      <c r="K9" s="25">
+        <v>0</v>
+      </c>
+      <c r="L9" s="25">
+        <v>0</v>
+      </c>
+      <c r="M9" s="25">
+        <v>0</v>
+      </c>
+      <c r="N9" s="25">
+        <v>1</v>
+      </c>
+      <c r="O9" s="25">
+        <v>1</v>
+      </c>
+      <c r="P9" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="25">
         <v>0</v>
       </c>
       <c r="R9" s="46"/>
     </row>
     <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="41">
-        <v>0</v>
-      </c>
-      <c r="B10" s="41">
-        <v>0</v>
-      </c>
-      <c r="C10" s="41">
-        <v>0</v>
-      </c>
-      <c r="D10" s="41">
-        <v>0</v>
-      </c>
-      <c r="E10" s="41">
-        <v>0</v>
-      </c>
-      <c r="F10" s="41">
-        <v>0</v>
-      </c>
-      <c r="G10" s="41">
-        <v>0</v>
-      </c>
-      <c r="H10" s="41">
-        <v>0</v>
-      </c>
-      <c r="I10" s="42">
-        <v>0</v>
-      </c>
-      <c r="J10" s="41">
-        <v>0</v>
-      </c>
-      <c r="K10" s="41">
-        <v>0</v>
-      </c>
-      <c r="L10" s="41">
-        <v>0</v>
-      </c>
-      <c r="M10" s="41">
-        <v>0</v>
-      </c>
-      <c r="N10" s="41">
-        <v>0</v>
-      </c>
-      <c r="O10" s="41">
-        <v>0</v>
-      </c>
-      <c r="P10" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="41">
-        <v>0</v>
-      </c>
-      <c r="R10" s="42">
+      <c r="A10" s="25">
+        <v>0</v>
+      </c>
+      <c r="B10" s="25">
+        <v>0</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0</v>
+      </c>
+      <c r="J10" s="25">
+        <v>0</v>
+      </c>
+      <c r="K10" s="25">
+        <v>0</v>
+      </c>
+      <c r="L10" s="25">
+        <v>0</v>
+      </c>
+      <c r="M10" s="25">
+        <v>0</v>
+      </c>
+      <c r="N10" s="25">
+        <v>0</v>
+      </c>
+      <c r="O10" s="25">
+        <v>0</v>
+      </c>
+      <c r="P10" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>0</v>
+      </c>
+      <c r="R10" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="41">
-        <v>0</v>
-      </c>
-      <c r="B11" s="41">
-        <v>0</v>
-      </c>
-      <c r="C11" s="41">
-        <v>0</v>
-      </c>
-      <c r="D11" s="41">
-        <v>0</v>
-      </c>
-      <c r="E11" s="41">
-        <v>0</v>
-      </c>
-      <c r="F11" s="41">
-        <v>0</v>
-      </c>
-      <c r="G11" s="41">
-        <v>0</v>
-      </c>
-      <c r="H11" s="41">
-        <v>0</v>
-      </c>
-      <c r="I11" s="42">
-        <v>0</v>
-      </c>
-      <c r="J11" s="41">
-        <v>0</v>
-      </c>
-      <c r="K11" s="41">
-        <v>0</v>
-      </c>
-      <c r="L11" s="41">
-        <v>0</v>
-      </c>
-      <c r="M11" s="41">
-        <v>0</v>
-      </c>
-      <c r="N11" s="41">
-        <v>0</v>
-      </c>
-      <c r="O11" s="41">
-        <v>0</v>
-      </c>
-      <c r="P11" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="41">
-        <v>0</v>
-      </c>
-      <c r="R11" s="42">
+      <c r="A11" s="25">
+        <v>0</v>
+      </c>
+      <c r="B11" s="25">
+        <v>0</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0</v>
+      </c>
+      <c r="I11" s="26">
+        <v>0</v>
+      </c>
+      <c r="J11" s="25">
+        <v>0</v>
+      </c>
+      <c r="K11" s="25">
+        <v>0</v>
+      </c>
+      <c r="L11" s="25">
+        <v>0</v>
+      </c>
+      <c r="M11" s="25">
+        <v>0</v>
+      </c>
+      <c r="N11" s="25">
+        <v>0</v>
+      </c>
+      <c r="O11" s="25">
+        <v>0</v>
+      </c>
+      <c r="P11" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>0</v>
+      </c>
+      <c r="R11" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="41">
-        <v>0</v>
-      </c>
-      <c r="B12" s="41">
-        <v>0</v>
-      </c>
-      <c r="C12" s="41">
-        <v>0</v>
-      </c>
-      <c r="D12" s="41">
-        <v>0</v>
-      </c>
-      <c r="E12" s="41">
-        <v>0</v>
-      </c>
-      <c r="F12" s="41">
-        <v>0</v>
-      </c>
-      <c r="G12" s="41">
-        <v>0</v>
-      </c>
-      <c r="H12" s="41">
+      <c r="A12" s="25">
+        <v>0</v>
+      </c>
+      <c r="B12" s="25">
+        <v>0</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" s="25">
         <v>0</v>
       </c>
       <c r="I12" s="46"/>
-      <c r="J12" s="41">
-        <v>0</v>
-      </c>
-      <c r="K12" s="41">
-        <v>0</v>
-      </c>
-      <c r="L12" s="41">
-        <v>0</v>
-      </c>
-      <c r="M12" s="41">
-        <v>0</v>
-      </c>
-      <c r="N12" s="41">
-        <v>0</v>
-      </c>
-      <c r="O12" s="41">
-        <v>0</v>
-      </c>
-      <c r="P12" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="41">
+      <c r="J12" s="25">
+        <v>0</v>
+      </c>
+      <c r="K12" s="25">
+        <v>0</v>
+      </c>
+      <c r="L12" s="25">
+        <v>0</v>
+      </c>
+      <c r="M12" s="25">
+        <v>0</v>
+      </c>
+      <c r="N12" s="25">
+        <v>0</v>
+      </c>
+      <c r="O12" s="25">
+        <v>0</v>
+      </c>
+      <c r="P12" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="25">
         <v>0</v>
       </c>
       <c r="R12" s="46"/>
     </row>
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="41">
-        <v>0</v>
-      </c>
-      <c r="B13" s="41">
-        <v>0</v>
-      </c>
-      <c r="C13" s="41">
-        <v>0</v>
-      </c>
-      <c r="D13" s="41">
-        <v>0</v>
-      </c>
-      <c r="E13" s="41">
-        <v>0</v>
-      </c>
-      <c r="F13" s="41">
-        <v>0</v>
-      </c>
-      <c r="G13" s="41">
-        <v>0</v>
-      </c>
-      <c r="H13" s="41">
+      <c r="A13" s="25">
+        <v>0</v>
+      </c>
+      <c r="B13" s="25">
+        <v>0</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0</v>
+      </c>
+      <c r="H13" s="25">
         <v>0</v>
       </c>
       <c r="I13" s="46"/>
-      <c r="J13" s="41">
-        <v>0</v>
-      </c>
-      <c r="K13" s="41">
-        <v>0</v>
-      </c>
-      <c r="L13" s="41">
-        <v>0</v>
-      </c>
-      <c r="M13" s="41">
-        <v>0</v>
-      </c>
-      <c r="N13" s="41">
-        <v>0</v>
-      </c>
-      <c r="O13" s="41">
-        <v>0</v>
-      </c>
-      <c r="P13" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="41">
+      <c r="J13" s="25">
+        <v>0</v>
+      </c>
+      <c r="K13" s="25">
+        <v>0</v>
+      </c>
+      <c r="L13" s="25">
+        <v>0</v>
+      </c>
+      <c r="M13" s="25">
+        <v>0</v>
+      </c>
+      <c r="N13" s="25">
+        <v>0</v>
+      </c>
+      <c r="O13" s="25">
+        <v>0</v>
+      </c>
+      <c r="P13" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="25">
         <v>0</v>
       </c>
       <c r="R13" s="46"/>
     </row>
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="41">
-        <v>0</v>
-      </c>
-      <c r="B14" s="41">
-        <v>0</v>
-      </c>
-      <c r="C14" s="41">
-        <v>0</v>
-      </c>
-      <c r="D14" s="41">
-        <v>0</v>
-      </c>
-      <c r="E14" s="41">
-        <v>0</v>
-      </c>
-      <c r="F14" s="41">
-        <v>0</v>
-      </c>
-      <c r="G14" s="41">
-        <v>0</v>
-      </c>
-      <c r="H14" s="41">
+      <c r="A14" s="25">
+        <v>0</v>
+      </c>
+      <c r="B14" s="25">
+        <v>0</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0</v>
+      </c>
+      <c r="H14" s="25">
         <v>0</v>
       </c>
       <c r="I14" s="46"/>
-      <c r="J14" s="41">
-        <v>0</v>
-      </c>
-      <c r="K14" s="41">
-        <v>0</v>
-      </c>
-      <c r="L14" s="41">
-        <v>0</v>
-      </c>
-      <c r="M14" s="41">
-        <v>0</v>
-      </c>
-      <c r="N14" s="41">
-        <v>0</v>
-      </c>
-      <c r="O14" s="41">
-        <v>0</v>
-      </c>
-      <c r="P14" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="41">
+      <c r="J14" s="25">
+        <v>0</v>
+      </c>
+      <c r="K14" s="25">
+        <v>0</v>
+      </c>
+      <c r="L14" s="25">
+        <v>0</v>
+      </c>
+      <c r="M14" s="25">
+        <v>0</v>
+      </c>
+      <c r="N14" s="25">
+        <v>0</v>
+      </c>
+      <c r="O14" s="25">
+        <v>0</v>
+      </c>
+      <c r="P14" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="25">
         <v>0</v>
       </c>
       <c r="R14" s="46"/>
     </row>
     <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="41">
-        <v>0</v>
-      </c>
-      <c r="B15" s="41">
-        <v>0</v>
-      </c>
-      <c r="C15" s="41">
-        <v>0</v>
-      </c>
-      <c r="D15" s="41">
-        <v>0</v>
-      </c>
-      <c r="E15" s="41">
-        <v>0</v>
-      </c>
-      <c r="F15" s="41">
-        <v>0</v>
-      </c>
-      <c r="G15" s="41">
-        <v>1</v>
-      </c>
-      <c r="H15" s="41">
+      <c r="A15" s="25">
+        <v>0</v>
+      </c>
+      <c r="B15" s="25">
+        <v>0</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0</v>
+      </c>
+      <c r="G15" s="25">
+        <v>1</v>
+      </c>
+      <c r="H15" s="25">
         <v>0</v>
       </c>
       <c r="I15" s="46"/>
-      <c r="J15" s="41">
-        <v>0</v>
-      </c>
-      <c r="K15" s="41">
-        <v>0</v>
-      </c>
-      <c r="L15" s="41">
-        <v>0</v>
-      </c>
-      <c r="M15" s="41">
-        <v>0</v>
-      </c>
-      <c r="N15" s="41">
-        <v>0</v>
-      </c>
-      <c r="O15" s="41">
-        <v>0</v>
-      </c>
-      <c r="P15" s="41">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="41">
+      <c r="J15" s="25">
+        <v>0</v>
+      </c>
+      <c r="K15" s="25">
+        <v>0</v>
+      </c>
+      <c r="L15" s="25">
+        <v>0</v>
+      </c>
+      <c r="M15" s="25">
+        <v>0</v>
+      </c>
+      <c r="N15" s="25">
+        <v>0</v>
+      </c>
+      <c r="O15" s="25">
+        <v>0</v>
+      </c>
+      <c r="P15" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="25">
         <v>0</v>
       </c>
       <c r="R15" s="46"/>
     </row>
     <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="43">
-        <v>0</v>
-      </c>
-      <c r="B16" s="43">
-        <v>0</v>
-      </c>
-      <c r="C16" s="43">
-        <v>0</v>
-      </c>
-      <c r="D16" s="43">
-        <v>0</v>
-      </c>
-      <c r="E16" s="43">
-        <v>0</v>
-      </c>
-      <c r="F16" s="43">
-        <v>0</v>
-      </c>
-      <c r="G16" s="43">
-        <v>0</v>
-      </c>
-      <c r="H16" s="43">
+      <c r="A16" s="27">
+        <v>0</v>
+      </c>
+      <c r="B16" s="27">
+        <v>0</v>
+      </c>
+      <c r="C16" s="27">
+        <v>0</v>
+      </c>
+      <c r="D16" s="27">
+        <v>0</v>
+      </c>
+      <c r="E16" s="27">
+        <v>0</v>
+      </c>
+      <c r="F16" s="27">
+        <v>0</v>
+      </c>
+      <c r="G16" s="27">
+        <v>0</v>
+      </c>
+      <c r="H16" s="27">
         <v>1</v>
       </c>
       <c r="I16" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="J16" s="47">
-        <v>0</v>
-      </c>
-      <c r="K16" s="47">
-        <v>0</v>
-      </c>
-      <c r="L16" s="47">
-        <v>0</v>
-      </c>
-      <c r="M16" s="47">
-        <v>0</v>
-      </c>
-      <c r="N16" s="47">
-        <v>0</v>
-      </c>
-      <c r="O16" s="47">
-        <v>0</v>
-      </c>
-      <c r="P16" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="47">
+      <c r="J16" s="30">
+        <v>0</v>
+      </c>
+      <c r="K16" s="30">
+        <v>0</v>
+      </c>
+      <c r="L16" s="30">
+        <v>0</v>
+      </c>
+      <c r="M16" s="30">
+        <v>0</v>
+      </c>
+      <c r="N16" s="30">
+        <v>0</v>
+      </c>
+      <c r="O16" s="30">
+        <v>0</v>
+      </c>
+      <c r="P16" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="30">
         <v>1</v>
       </c>
       <c r="R16" s="46" t="s">
@@ -7027,199 +7224,199 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="43">
-        <v>0</v>
-      </c>
-      <c r="B17" s="43">
-        <v>0</v>
-      </c>
-      <c r="C17" s="43">
-        <v>0</v>
-      </c>
-      <c r="D17" s="43">
-        <v>0</v>
-      </c>
-      <c r="E17" s="43">
-        <v>0</v>
-      </c>
-      <c r="F17" s="43">
-        <v>0</v>
-      </c>
-      <c r="G17" s="43">
-        <v>0</v>
-      </c>
-      <c r="H17" s="43">
+      <c r="A17" s="27">
+        <v>0</v>
+      </c>
+      <c r="B17" s="27">
+        <v>0</v>
+      </c>
+      <c r="C17" s="27">
+        <v>0</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0</v>
+      </c>
+      <c r="E17" s="27">
+        <v>0</v>
+      </c>
+      <c r="F17" s="27">
+        <v>0</v>
+      </c>
+      <c r="G17" s="27">
+        <v>0</v>
+      </c>
+      <c r="H17" s="27">
         <v>0</v>
       </c>
       <c r="I17" s="46"/>
-      <c r="J17" s="47">
-        <v>0</v>
-      </c>
-      <c r="K17" s="47">
-        <v>0</v>
-      </c>
-      <c r="L17" s="47">
-        <v>0</v>
-      </c>
-      <c r="M17" s="47">
-        <v>0</v>
-      </c>
-      <c r="N17" s="47">
-        <v>0</v>
-      </c>
-      <c r="O17" s="47">
-        <v>0</v>
-      </c>
-      <c r="P17" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="47">
+      <c r="J17" s="30">
+        <v>0</v>
+      </c>
+      <c r="K17" s="30">
+        <v>0</v>
+      </c>
+      <c r="L17" s="30">
+        <v>0</v>
+      </c>
+      <c r="M17" s="30">
+        <v>0</v>
+      </c>
+      <c r="N17" s="30">
+        <v>0</v>
+      </c>
+      <c r="O17" s="30">
+        <v>0</v>
+      </c>
+      <c r="P17" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="30">
         <v>0</v>
       </c>
       <c r="R17" s="46"/>
     </row>
     <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="48">
-        <v>0</v>
-      </c>
-      <c r="K18" s="48">
-        <v>0</v>
-      </c>
-      <c r="L18" s="48">
-        <v>1</v>
-      </c>
-      <c r="M18" s="48">
-        <v>0</v>
-      </c>
-      <c r="N18" s="48">
-        <v>0</v>
-      </c>
-      <c r="O18" s="48">
-        <v>0</v>
-      </c>
-      <c r="P18" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="48">
-        <v>1</v>
-      </c>
-      <c r="R18" s="49" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="31">
+        <v>0</v>
+      </c>
+      <c r="K18" s="31">
+        <v>0</v>
+      </c>
+      <c r="L18" s="31">
+        <v>1</v>
+      </c>
+      <c r="M18" s="31">
+        <v>0</v>
+      </c>
+      <c r="N18" s="31">
+        <v>0</v>
+      </c>
+      <c r="O18" s="31">
+        <v>0</v>
+      </c>
+      <c r="P18" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="31">
+        <v>1</v>
+      </c>
+      <c r="R18" s="45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="48">
-        <v>0</v>
-      </c>
-      <c r="K19" s="48">
-        <v>0</v>
-      </c>
-      <c r="L19" s="48">
-        <v>0</v>
-      </c>
-      <c r="M19" s="48">
-        <v>0</v>
-      </c>
-      <c r="N19" s="48">
-        <v>0</v>
-      </c>
-      <c r="O19" s="48">
-        <v>0</v>
-      </c>
-      <c r="P19" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="48">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="31">
+        <v>0</v>
+      </c>
+      <c r="K19" s="31">
+        <v>0</v>
+      </c>
+      <c r="L19" s="31">
+        <v>0</v>
+      </c>
+      <c r="M19" s="31">
+        <v>0</v>
+      </c>
+      <c r="N19" s="31">
+        <v>0</v>
+      </c>
+      <c r="O19" s="31">
+        <v>0</v>
+      </c>
+      <c r="P19" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="31">
         <v>1</v>
       </c>
       <c r="R19" s="46"/>
     </row>
     <row r="20" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="48">
-        <v>0</v>
-      </c>
-      <c r="K20" s="48">
-        <v>0</v>
-      </c>
-      <c r="L20" s="48">
-        <v>0</v>
-      </c>
-      <c r="M20" s="48">
-        <v>0</v>
-      </c>
-      <c r="N20" s="48">
-        <v>0</v>
-      </c>
-      <c r="O20" s="48">
-        <v>0</v>
-      </c>
-      <c r="P20" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="48">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="31">
+        <v>0</v>
+      </c>
+      <c r="K20" s="31">
+        <v>0</v>
+      </c>
+      <c r="L20" s="31">
+        <v>0</v>
+      </c>
+      <c r="M20" s="31">
+        <v>0</v>
+      </c>
+      <c r="N20" s="31">
+        <v>0</v>
+      </c>
+      <c r="O20" s="31">
+        <v>0</v>
+      </c>
+      <c r="P20" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="31">
         <v>0</v>
       </c>
       <c r="R20" s="46"/>
     </row>
     <row r="21" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="47">
-        <v>0</v>
-      </c>
-      <c r="K21" s="47">
-        <v>0</v>
-      </c>
-      <c r="L21" s="47">
-        <v>0</v>
-      </c>
-      <c r="M21" s="47">
-        <v>0</v>
-      </c>
-      <c r="N21" s="47">
-        <v>0</v>
-      </c>
-      <c r="O21" s="47">
-        <v>0</v>
-      </c>
-      <c r="P21" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="47">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="30">
+        <v>0</v>
+      </c>
+      <c r="K21" s="30">
+        <v>0</v>
+      </c>
+      <c r="L21" s="30">
+        <v>0</v>
+      </c>
+      <c r="M21" s="30">
+        <v>0</v>
+      </c>
+      <c r="N21" s="30">
+        <v>0</v>
+      </c>
+      <c r="O21" s="30">
+        <v>0</v>
+      </c>
+      <c r="P21" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="30">
         <v>1</v>
       </c>
       <c r="R21" s="46" t="s">
@@ -7227,263 +7424,269 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="47">
-        <v>0</v>
-      </c>
-      <c r="K22" s="47">
-        <v>0</v>
-      </c>
-      <c r="L22" s="47">
-        <v>0</v>
-      </c>
-      <c r="M22" s="47">
-        <v>0</v>
-      </c>
-      <c r="N22" s="47">
-        <v>0</v>
-      </c>
-      <c r="O22" s="47">
-        <v>0</v>
-      </c>
-      <c r="P22" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="47">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="30">
+        <v>0</v>
+      </c>
+      <c r="K22" s="30">
+        <v>0</v>
+      </c>
+      <c r="L22" s="30">
+        <v>0</v>
+      </c>
+      <c r="M22" s="30">
+        <v>0</v>
+      </c>
+      <c r="N22" s="30">
+        <v>0</v>
+      </c>
+      <c r="O22" s="30">
+        <v>0</v>
+      </c>
+      <c r="P22" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="30">
         <v>0</v>
       </c>
       <c r="R22" s="46"/>
     </row>
-    <row r="23" spans="1:18" s="50" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="47">
-        <v>0</v>
-      </c>
-      <c r="K23" s="47">
-        <v>1</v>
-      </c>
-      <c r="L23" s="47">
-        <v>0</v>
-      </c>
-      <c r="M23" s="47">
-        <v>0</v>
-      </c>
-      <c r="N23" s="47">
-        <v>0</v>
-      </c>
-      <c r="O23" s="47">
-        <v>0</v>
-      </c>
-      <c r="P23" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="47">
-        <v>1</v>
-      </c>
-      <c r="R23" s="49" t="s">
+    <row r="23" spans="1:18" s="32" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="30">
+        <v>0</v>
+      </c>
+      <c r="K23" s="30">
+        <v>1</v>
+      </c>
+      <c r="L23" s="30">
+        <v>0</v>
+      </c>
+      <c r="M23" s="30">
+        <v>0</v>
+      </c>
+      <c r="N23" s="30">
+        <v>0</v>
+      </c>
+      <c r="O23" s="30">
+        <v>0</v>
+      </c>
+      <c r="P23" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="30">
+        <v>1</v>
+      </c>
+      <c r="R23" s="45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="50" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="47">
-        <v>0</v>
-      </c>
-      <c r="K24" s="47">
-        <v>0</v>
-      </c>
-      <c r="L24" s="47">
-        <v>0</v>
-      </c>
-      <c r="M24" s="47">
-        <v>0</v>
-      </c>
-      <c r="N24" s="47">
-        <v>0</v>
-      </c>
-      <c r="O24" s="47">
-        <v>0</v>
-      </c>
-      <c r="P24" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="47">
-        <v>1</v>
-      </c>
-      <c r="R24" s="49"/>
+    <row r="24" spans="1:18" s="32" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="30">
+        <v>0</v>
+      </c>
+      <c r="K24" s="30">
+        <v>0</v>
+      </c>
+      <c r="L24" s="30">
+        <v>0</v>
+      </c>
+      <c r="M24" s="30">
+        <v>0</v>
+      </c>
+      <c r="N24" s="30">
+        <v>0</v>
+      </c>
+      <c r="O24" s="30">
+        <v>0</v>
+      </c>
+      <c r="P24" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="30">
+        <v>1</v>
+      </c>
+      <c r="R24" s="45"/>
     </row>
     <row r="25" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="51">
-        <v>0</v>
-      </c>
-      <c r="K25" s="51">
-        <v>0</v>
-      </c>
-      <c r="L25" s="51">
-        <v>0</v>
-      </c>
-      <c r="M25" s="51">
-        <v>0</v>
-      </c>
-      <c r="N25" s="51">
-        <v>0</v>
-      </c>
-      <c r="O25" s="51">
-        <v>0</v>
-      </c>
-      <c r="P25" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="51">
-        <v>1</v>
-      </c>
-      <c r="R25" s="49"/>
-    </row>
-    <row r="26" spans="1:18" s="50" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="47">
-        <v>0</v>
-      </c>
-      <c r="K26" s="47">
-        <v>1</v>
-      </c>
-      <c r="L26" s="47">
-        <v>0</v>
-      </c>
-      <c r="M26" s="47">
-        <v>0</v>
-      </c>
-      <c r="N26" s="47">
-        <v>0</v>
-      </c>
-      <c r="O26" s="47">
-        <v>0</v>
-      </c>
-      <c r="P26" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="47">
-        <v>1</v>
-      </c>
-      <c r="R26" s="49" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="33">
+        <v>0</v>
+      </c>
+      <c r="K25" s="33">
+        <v>0</v>
+      </c>
+      <c r="L25" s="33">
+        <v>0</v>
+      </c>
+      <c r="M25" s="33">
+        <v>0</v>
+      </c>
+      <c r="N25" s="33">
+        <v>0</v>
+      </c>
+      <c r="O25" s="33">
+        <v>0</v>
+      </c>
+      <c r="P25" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="33">
+        <v>1</v>
+      </c>
+      <c r="R25" s="45"/>
+    </row>
+    <row r="26" spans="1:18" s="32" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="30">
+        <v>0</v>
+      </c>
+      <c r="K26" s="30">
+        <v>1</v>
+      </c>
+      <c r="L26" s="30">
+        <v>0</v>
+      </c>
+      <c r="M26" s="30">
+        <v>0</v>
+      </c>
+      <c r="N26" s="30">
+        <v>0</v>
+      </c>
+      <c r="O26" s="30">
+        <v>0</v>
+      </c>
+      <c r="P26" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="30">
+        <v>1</v>
+      </c>
+      <c r="R26" s="45" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="50" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="47">
-        <v>0</v>
-      </c>
-      <c r="K27" s="47">
-        <v>0</v>
-      </c>
-      <c r="L27" s="47">
-        <v>0</v>
-      </c>
-      <c r="M27" s="47">
-        <v>0</v>
-      </c>
-      <c r="N27" s="47">
-        <v>0</v>
-      </c>
-      <c r="O27" s="47">
-        <v>0</v>
-      </c>
-      <c r="P27" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="47">
-        <v>1</v>
-      </c>
-      <c r="R27" s="49"/>
+    <row r="27" spans="1:18" s="32" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="30">
+        <v>0</v>
+      </c>
+      <c r="K27" s="30">
+        <v>0</v>
+      </c>
+      <c r="L27" s="30">
+        <v>0</v>
+      </c>
+      <c r="M27" s="30">
+        <v>0</v>
+      </c>
+      <c r="N27" s="30">
+        <v>0</v>
+      </c>
+      <c r="O27" s="30">
+        <v>0</v>
+      </c>
+      <c r="P27" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="30">
+        <v>1</v>
+      </c>
+      <c r="R27" s="45"/>
     </row>
     <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="51">
-        <v>0</v>
-      </c>
-      <c r="K28" s="51">
-        <v>0</v>
-      </c>
-      <c r="L28" s="51">
-        <v>0</v>
-      </c>
-      <c r="M28" s="51">
-        <v>0</v>
-      </c>
-      <c r="N28" s="51">
-        <v>0</v>
-      </c>
-      <c r="O28" s="51">
-        <v>0</v>
-      </c>
-      <c r="P28" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="51">
-        <v>0</v>
-      </c>
-      <c r="R28" s="49"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="33">
+        <v>0</v>
+      </c>
+      <c r="K28" s="33">
+        <v>0</v>
+      </c>
+      <c r="L28" s="33">
+        <v>0</v>
+      </c>
+      <c r="M28" s="33">
+        <v>0</v>
+      </c>
+      <c r="N28" s="33">
+        <v>0</v>
+      </c>
+      <c r="O28" s="33">
+        <v>0</v>
+      </c>
+      <c r="P28" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="33">
+        <v>0</v>
+      </c>
+      <c r="R28" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="R6:R7"/>
     <mergeCell ref="R18:R20"/>
     <mergeCell ref="R21:R22"/>
     <mergeCell ref="R23:R25"/>
@@ -7494,12 +7697,6 @@
     <mergeCell ref="R12:R15"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="R16:R17"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="R6:R7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7526,605 +7723,1077 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B750F1D-163C-4EAD-B56F-9E3F98F772E3}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="2.875" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="36"/>
+    <col min="1" max="8" width="2.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="37">
-        <v>0</v>
-      </c>
-      <c r="B2" s="37">
-        <v>0</v>
-      </c>
-      <c r="C2" s="37">
-        <v>0</v>
-      </c>
-      <c r="D2" s="37">
-        <v>0</v>
-      </c>
-      <c r="E2" s="37">
-        <v>0</v>
-      </c>
-      <c r="F2" s="37">
-        <v>0</v>
-      </c>
-      <c r="G2" s="37">
-        <v>0</v>
-      </c>
-      <c r="H2" s="37">
-        <v>0</v>
-      </c>
-      <c r="I2" s="38">
+      <c r="A2" s="24">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24">
+        <v>0</v>
+      </c>
+      <c r="D2" s="24">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24">
+        <v>0</v>
+      </c>
+      <c r="F2" s="24">
+        <v>0</v>
+      </c>
+      <c r="G2" s="24">
+        <v>0</v>
+      </c>
+      <c r="H2" s="24">
+        <v>0</v>
+      </c>
+      <c r="I2" s="50">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="37">
-        <v>0</v>
-      </c>
-      <c r="B3" s="37">
-        <v>0</v>
-      </c>
-      <c r="C3" s="37">
-        <v>0</v>
-      </c>
-      <c r="D3" s="37">
-        <v>0</v>
-      </c>
-      <c r="E3" s="37">
-        <v>0</v>
-      </c>
-      <c r="F3" s="37">
-        <v>0</v>
-      </c>
-      <c r="G3" s="37">
-        <v>0</v>
-      </c>
-      <c r="H3" s="37">
-        <v>0</v>
-      </c>
-      <c r="I3" s="39"/>
+      <c r="A3" s="24">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24">
+        <v>0</v>
+      </c>
+      <c r="E3" s="24">
+        <v>0</v>
+      </c>
+      <c r="F3" s="24">
+        <v>0</v>
+      </c>
+      <c r="G3" s="24">
+        <v>0</v>
+      </c>
+      <c r="H3" s="24">
+        <v>0</v>
+      </c>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="37">
-        <v>0</v>
-      </c>
-      <c r="B4" s="37">
-        <v>0</v>
-      </c>
-      <c r="C4" s="37">
-        <v>0</v>
-      </c>
-      <c r="D4" s="37">
-        <v>0</v>
-      </c>
-      <c r="E4" s="37">
-        <v>0</v>
-      </c>
-      <c r="F4" s="37">
-        <v>0</v>
-      </c>
-      <c r="G4" s="37">
-        <v>0</v>
-      </c>
-      <c r="H4" s="37">
-        <v>0</v>
-      </c>
-      <c r="I4" s="39"/>
+      <c r="A4" s="24">
+        <v>0</v>
+      </c>
+      <c r="B4" s="24">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="24">
+        <v>0</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0</v>
+      </c>
+      <c r="H4" s="24">
+        <v>0</v>
+      </c>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="37">
-        <v>0</v>
-      </c>
-      <c r="B5" s="37">
-        <v>0</v>
-      </c>
-      <c r="C5" s="37">
-        <v>0</v>
-      </c>
-      <c r="D5" s="37">
-        <v>0</v>
-      </c>
-      <c r="E5" s="37">
-        <v>1</v>
-      </c>
-      <c r="F5" s="37">
-        <v>1</v>
-      </c>
-      <c r="G5" s="37">
-        <v>0</v>
-      </c>
-      <c r="H5" s="37">
-        <v>0</v>
-      </c>
-      <c r="I5" s="40"/>
+      <c r="A5" s="24">
+        <v>0</v>
+      </c>
+      <c r="B5" s="24">
+        <v>0</v>
+      </c>
+      <c r="C5" s="24">
+        <v>0</v>
+      </c>
+      <c r="D5" s="24">
+        <v>0</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24">
+        <v>1</v>
+      </c>
+      <c r="G5" s="24">
+        <v>0</v>
+      </c>
+      <c r="H5" s="24">
+        <v>0</v>
+      </c>
+      <c r="I5" s="52"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="41">
-        <v>0</v>
-      </c>
-      <c r="B6" s="41">
-        <v>1</v>
-      </c>
-      <c r="C6" s="41">
-        <v>1</v>
-      </c>
-      <c r="D6" s="41">
-        <v>1</v>
-      </c>
-      <c r="E6" s="41">
-        <v>1</v>
-      </c>
-      <c r="F6" s="41">
-        <v>1</v>
-      </c>
-      <c r="G6" s="41">
-        <v>1</v>
-      </c>
-      <c r="H6" s="41">
-        <v>1</v>
-      </c>
-      <c r="I6" s="38" t="s">
+      <c r="A6" s="25">
+        <v>0</v>
+      </c>
+      <c r="B6" s="25">
+        <v>1</v>
+      </c>
+      <c r="C6" s="25">
+        <v>1</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25">
+        <v>1</v>
+      </c>
+      <c r="G6" s="25">
+        <v>1</v>
+      </c>
+      <c r="H6" s="25">
+        <v>1</v>
+      </c>
+      <c r="I6" s="50" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="41">
-        <v>1</v>
-      </c>
-      <c r="B7" s="41">
-        <v>1</v>
-      </c>
-      <c r="C7" s="41">
-        <v>1</v>
-      </c>
-      <c r="D7" s="41">
-        <v>1</v>
-      </c>
-      <c r="E7" s="41">
-        <v>1</v>
-      </c>
-      <c r="F7" s="41">
-        <v>1</v>
-      </c>
-      <c r="G7" s="41">
-        <v>1</v>
-      </c>
-      <c r="H7" s="41">
-        <v>1</v>
-      </c>
-      <c r="I7" s="40"/>
+      <c r="A7" s="25">
+        <v>1</v>
+      </c>
+      <c r="B7" s="25">
+        <v>1</v>
+      </c>
+      <c r="C7" s="25">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25">
+        <v>1</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25">
+        <v>1</v>
+      </c>
+      <c r="G7" s="25">
+        <v>1</v>
+      </c>
+      <c r="H7" s="25">
+        <v>1</v>
+      </c>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="41">
-        <v>0</v>
-      </c>
-      <c r="B8" s="41">
-        <v>0</v>
-      </c>
-      <c r="C8" s="41">
-        <v>0</v>
-      </c>
-      <c r="D8" s="41">
-        <v>0</v>
-      </c>
-      <c r="E8" s="41">
-        <v>0</v>
-      </c>
-      <c r="F8" s="41">
-        <v>1</v>
-      </c>
-      <c r="G8" s="41">
-        <v>0</v>
-      </c>
-      <c r="H8" s="41">
-        <v>1</v>
-      </c>
-      <c r="I8" s="38" t="s">
+      <c r="A8" s="25">
+        <v>0</v>
+      </c>
+      <c r="B8" s="25">
+        <v>0</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0</v>
+      </c>
+      <c r="F8" s="25">
+        <v>1</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
+        <v>1</v>
+      </c>
+      <c r="I8" s="50" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="41">
-        <v>0</v>
-      </c>
-      <c r="B9" s="41">
-        <v>0</v>
-      </c>
-      <c r="C9" s="41">
-        <v>0</v>
-      </c>
-      <c r="D9" s="41">
-        <v>0</v>
-      </c>
-      <c r="E9" s="41">
-        <v>0</v>
-      </c>
-      <c r="F9" s="41">
-        <v>1</v>
-      </c>
-      <c r="G9" s="41">
-        <v>1</v>
-      </c>
-      <c r="H9" s="41">
-        <v>0</v>
-      </c>
-      <c r="I9" s="40"/>
+      <c r="A9" s="25">
+        <v>0</v>
+      </c>
+      <c r="B9" s="25">
+        <v>0</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0</v>
+      </c>
+      <c r="F9" s="25">
+        <v>1</v>
+      </c>
+      <c r="G9" s="25">
+        <v>1</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0</v>
+      </c>
+      <c r="I9" s="52"/>
     </row>
     <row r="10" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="41">
-        <v>0</v>
-      </c>
-      <c r="B10" s="41">
-        <v>0</v>
-      </c>
-      <c r="C10" s="41">
-        <v>0</v>
-      </c>
-      <c r="D10" s="41">
-        <v>0</v>
-      </c>
-      <c r="E10" s="41">
-        <v>0</v>
-      </c>
-      <c r="F10" s="41">
-        <v>0</v>
-      </c>
-      <c r="G10" s="41">
-        <v>0</v>
-      </c>
-      <c r="H10" s="41">
-        <v>0</v>
-      </c>
-      <c r="I10" s="42">
+      <c r="A10" s="25">
+        <v>0</v>
+      </c>
+      <c r="B10" s="25">
+        <v>0</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0</v>
+      </c>
+      <c r="I10" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="41">
-        <v>0</v>
-      </c>
-      <c r="B11" s="41">
-        <v>0</v>
-      </c>
-      <c r="C11" s="41">
-        <v>0</v>
-      </c>
-      <c r="D11" s="41">
-        <v>0</v>
-      </c>
-      <c r="E11" s="41">
-        <v>0</v>
-      </c>
-      <c r="F11" s="41">
-        <v>0</v>
-      </c>
-      <c r="G11" s="41">
-        <v>0</v>
-      </c>
-      <c r="H11" s="41">
-        <v>0</v>
-      </c>
-      <c r="I11" s="42">
+      <c r="A11" s="25">
+        <v>0</v>
+      </c>
+      <c r="B11" s="25">
+        <v>0</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0</v>
+      </c>
+      <c r="I11" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="41">
-        <v>0</v>
-      </c>
-      <c r="B12" s="41">
-        <v>0</v>
-      </c>
-      <c r="C12" s="41">
-        <v>0</v>
-      </c>
-      <c r="D12" s="41">
-        <v>0</v>
-      </c>
-      <c r="E12" s="41">
-        <v>0</v>
-      </c>
-      <c r="F12" s="41">
-        <v>0</v>
-      </c>
-      <c r="G12" s="41">
-        <v>0</v>
-      </c>
-      <c r="H12" s="41">
-        <v>0</v>
-      </c>
-      <c r="I12" s="38"/>
+      <c r="A12" s="25">
+        <v>0</v>
+      </c>
+      <c r="B12" s="25">
+        <v>0</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0</v>
+      </c>
+      <c r="I12" s="50"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="41">
-        <v>0</v>
-      </c>
-      <c r="B13" s="41">
-        <v>0</v>
-      </c>
-      <c r="C13" s="41">
-        <v>0</v>
-      </c>
-      <c r="D13" s="41">
-        <v>0</v>
-      </c>
-      <c r="E13" s="41">
-        <v>0</v>
-      </c>
-      <c r="F13" s="41">
-        <v>0</v>
-      </c>
-      <c r="G13" s="41">
-        <v>0</v>
-      </c>
-      <c r="H13" s="41">
-        <v>0</v>
-      </c>
-      <c r="I13" s="39"/>
+      <c r="A13" s="25">
+        <v>0</v>
+      </c>
+      <c r="B13" s="25">
+        <v>0</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0</v>
+      </c>
+      <c r="I13" s="51"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="41">
-        <v>0</v>
-      </c>
-      <c r="B14" s="41">
-        <v>0</v>
-      </c>
-      <c r="C14" s="41">
-        <v>0</v>
-      </c>
-      <c r="D14" s="41">
-        <v>0</v>
-      </c>
-      <c r="E14" s="41">
-        <v>0</v>
-      </c>
-      <c r="F14" s="41">
-        <v>0</v>
-      </c>
-      <c r="G14" s="41">
-        <v>0</v>
-      </c>
-      <c r="H14" s="41">
-        <v>0</v>
-      </c>
-      <c r="I14" s="39"/>
+      <c r="A14" s="25">
+        <v>0</v>
+      </c>
+      <c r="B14" s="25">
+        <v>0</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0</v>
+      </c>
+      <c r="I14" s="51"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="41">
-        <v>0</v>
-      </c>
-      <c r="B15" s="41">
-        <v>0</v>
-      </c>
-      <c r="C15" s="41">
-        <v>0</v>
-      </c>
-      <c r="D15" s="41">
-        <v>0</v>
-      </c>
-      <c r="E15" s="41">
-        <v>0</v>
-      </c>
-      <c r="F15" s="41">
-        <v>0</v>
-      </c>
-      <c r="G15" s="41">
-        <v>1</v>
-      </c>
-      <c r="H15" s="41">
-        <v>0</v>
-      </c>
-      <c r="I15" s="40"/>
+      <c r="A15" s="25">
+        <v>0</v>
+      </c>
+      <c r="B15" s="25">
+        <v>0</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0</v>
+      </c>
+      <c r="G15" s="25">
+        <v>1</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0</v>
+      </c>
+      <c r="I15" s="52"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="43">
-        <v>0</v>
-      </c>
-      <c r="B16" s="43">
-        <v>0</v>
-      </c>
-      <c r="C16" s="43">
-        <v>0</v>
-      </c>
-      <c r="D16" s="43">
-        <v>0</v>
-      </c>
-      <c r="E16" s="43">
-        <v>0</v>
-      </c>
-      <c r="F16" s="43">
-        <v>0</v>
-      </c>
-      <c r="G16" s="43">
-        <v>0</v>
-      </c>
-      <c r="H16" s="43">
-        <v>1</v>
-      </c>
-      <c r="I16" s="38" t="s">
+      <c r="A16" s="27">
+        <v>0</v>
+      </c>
+      <c r="B16" s="27">
+        <v>0</v>
+      </c>
+      <c r="C16" s="27">
+        <v>0</v>
+      </c>
+      <c r="D16" s="27">
+        <v>0</v>
+      </c>
+      <c r="E16" s="27">
+        <v>0</v>
+      </c>
+      <c r="F16" s="27">
+        <v>0</v>
+      </c>
+      <c r="G16" s="27">
+        <v>0</v>
+      </c>
+      <c r="H16" s="27">
+        <v>1</v>
+      </c>
+      <c r="I16" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="43">
-        <v>0</v>
-      </c>
-      <c r="B17" s="43">
-        <v>0</v>
-      </c>
-      <c r="C17" s="43">
-        <v>0</v>
-      </c>
-      <c r="D17" s="43">
-        <v>0</v>
-      </c>
-      <c r="E17" s="43">
-        <v>0</v>
-      </c>
-      <c r="F17" s="43">
-        <v>0</v>
-      </c>
-      <c r="G17" s="43">
-        <v>0</v>
-      </c>
-      <c r="H17" s="43">
-        <v>0</v>
-      </c>
-      <c r="I17" s="40"/>
+      <c r="A17" s="27">
+        <v>0</v>
+      </c>
+      <c r="B17" s="27">
+        <v>0</v>
+      </c>
+      <c r="C17" s="27">
+        <v>0</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0</v>
+      </c>
+      <c r="E17" s="27">
+        <v>0</v>
+      </c>
+      <c r="F17" s="27">
+        <v>0</v>
+      </c>
+      <c r="G17" s="27">
+        <v>0</v>
+      </c>
+      <c r="H17" s="27">
+        <v>0</v>
+      </c>
+      <c r="I17" s="52"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="45"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="29"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="45"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="44"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="I16:I17"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="I2:I5"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I12:I15"/>
-    <mergeCell ref="I16:I17"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2F8C13-A75E-4048-BEF3-68A35EC678C6}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="8" width="3.125" style="53" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="54">
+        <v>0</v>
+      </c>
+      <c r="B2" s="54">
+        <v>1</v>
+      </c>
+      <c r="C2" s="54">
+        <v>0</v>
+      </c>
+      <c r="D2" s="54">
+        <v>0</v>
+      </c>
+      <c r="E2" s="54">
+        <v>0</v>
+      </c>
+      <c r="F2" s="54">
+        <v>0</v>
+      </c>
+      <c r="G2" s="55">
+        <v>0</v>
+      </c>
+      <c r="H2" s="55">
+        <v>1</v>
+      </c>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="56">
+        <v>0</v>
+      </c>
+      <c r="B3" s="56">
+        <v>0</v>
+      </c>
+      <c r="C3" s="56">
+        <v>0</v>
+      </c>
+      <c r="D3" s="56">
+        <v>0</v>
+      </c>
+      <c r="E3" s="56">
+        <v>0</v>
+      </c>
+      <c r="F3" s="56">
+        <v>0</v>
+      </c>
+      <c r="G3" s="56">
+        <v>1</v>
+      </c>
+      <c r="H3" s="56">
+        <v>1</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="57">
+        <v>0</v>
+      </c>
+      <c r="B4" s="57">
+        <v>1</v>
+      </c>
+      <c r="C4" s="57">
+        <v>0</v>
+      </c>
+      <c r="D4" s="57">
+        <v>0</v>
+      </c>
+      <c r="E4" s="57">
+        <v>0</v>
+      </c>
+      <c r="F4" s="57">
+        <v>0</v>
+      </c>
+      <c r="G4" s="57">
+        <v>0</v>
+      </c>
+      <c r="H4" s="57">
+        <v>1</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="57">
+        <v>0</v>
+      </c>
+      <c r="B5" s="57">
+        <v>1</v>
+      </c>
+      <c r="C5" s="57">
+        <v>0</v>
+      </c>
+      <c r="D5" s="57">
+        <v>0</v>
+      </c>
+      <c r="E5" s="57">
+        <v>0</v>
+      </c>
+      <c r="F5" s="57">
+        <v>0</v>
+      </c>
+      <c r="G5" s="57">
+        <v>1</v>
+      </c>
+      <c r="H5" s="57">
+        <v>0</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="57">
+        <v>0</v>
+      </c>
+      <c r="B6" s="57">
+        <v>1</v>
+      </c>
+      <c r="C6" s="57">
+        <v>0</v>
+      </c>
+      <c r="D6" s="57">
+        <v>0</v>
+      </c>
+      <c r="E6" s="57">
+        <v>0</v>
+      </c>
+      <c r="F6" s="57">
+        <v>0</v>
+      </c>
+      <c r="G6" s="57">
+        <v>1</v>
+      </c>
+      <c r="H6" s="57">
+        <v>1</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="54">
+        <v>0</v>
+      </c>
+      <c r="B9" s="54">
+        <v>1</v>
+      </c>
+      <c r="C9" s="54">
+        <v>1</v>
+      </c>
+      <c r="D9" s="54">
+        <v>1</v>
+      </c>
+      <c r="E9" s="54">
+        <v>0</v>
+      </c>
+      <c r="F9" s="54">
+        <v>0</v>
+      </c>
+      <c r="G9" s="55">
+        <v>0</v>
+      </c>
+      <c r="H9" s="55">
+        <v>1</v>
+      </c>
+      <c r="I9" s="58"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="56">
+        <v>0</v>
+      </c>
+      <c r="B10" s="56">
+        <v>0</v>
+      </c>
+      <c r="C10" s="56">
+        <v>0</v>
+      </c>
+      <c r="D10" s="56">
+        <v>0</v>
+      </c>
+      <c r="E10" s="56">
+        <v>1</v>
+      </c>
+      <c r="F10" s="56">
+        <v>0</v>
+      </c>
+      <c r="G10" s="56">
+        <v>0</v>
+      </c>
+      <c r="H10" s="56">
+        <v>0</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="57">
+        <v>0</v>
+      </c>
+      <c r="B11" s="57">
+        <v>0</v>
+      </c>
+      <c r="C11" s="57">
+        <v>0</v>
+      </c>
+      <c r="D11" s="57">
+        <v>0</v>
+      </c>
+      <c r="E11" s="57">
+        <v>0</v>
+      </c>
+      <c r="F11" s="57">
+        <v>0</v>
+      </c>
+      <c r="G11" s="57">
+        <v>0</v>
+      </c>
+      <c r="H11" s="57">
+        <v>0</v>
+      </c>
+      <c r="I11" s="62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="57">
+        <v>0</v>
+      </c>
+      <c r="B12" s="57">
+        <v>0</v>
+      </c>
+      <c r="C12" s="57">
+        <v>0</v>
+      </c>
+      <c r="D12" s="57">
+        <v>0</v>
+      </c>
+      <c r="E12" s="57">
+        <v>0</v>
+      </c>
+      <c r="F12" s="57">
+        <v>0</v>
+      </c>
+      <c r="G12" s="57">
+        <v>0</v>
+      </c>
+      <c r="H12" s="57">
+        <v>0</v>
+      </c>
+      <c r="I12" s="63"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="57">
+        <v>0</v>
+      </c>
+      <c r="B13" s="57">
+        <v>0</v>
+      </c>
+      <c r="C13" s="57">
+        <v>0</v>
+      </c>
+      <c r="D13" s="57">
+        <v>0</v>
+      </c>
+      <c r="E13" s="57">
+        <v>0</v>
+      </c>
+      <c r="F13" s="57">
+        <v>0</v>
+      </c>
+      <c r="G13" s="57">
+        <v>0</v>
+      </c>
+      <c r="H13" s="57">
+        <v>0</v>
+      </c>
+      <c r="I13" s="63"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="57">
+        <v>0</v>
+      </c>
+      <c r="B14" s="57">
+        <v>1</v>
+      </c>
+      <c r="C14" s="57">
+        <v>1</v>
+      </c>
+      <c r="D14" s="57">
+        <v>0</v>
+      </c>
+      <c r="E14" s="57">
+        <v>0</v>
+      </c>
+      <c r="F14" s="57">
+        <v>1</v>
+      </c>
+      <c r="G14" s="57">
+        <v>0</v>
+      </c>
+      <c r="H14" s="57">
+        <v>0</v>
+      </c>
+      <c r="I14" s="64"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="57">
+        <v>0</v>
+      </c>
+      <c r="B15" s="57">
+        <v>0</v>
+      </c>
+      <c r="C15" s="57">
+        <v>0</v>
+      </c>
+      <c r="D15" s="57">
+        <v>0</v>
+      </c>
+      <c r="E15" s="57">
+        <v>0</v>
+      </c>
+      <c r="F15" s="57">
+        <v>0</v>
+      </c>
+      <c r="G15" s="57">
+        <v>0</v>
+      </c>
+      <c r="H15" s="57">
+        <v>0</v>
+      </c>
+      <c r="I15" s="62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="57">
+        <v>0</v>
+      </c>
+      <c r="B16" s="57">
+        <v>0</v>
+      </c>
+      <c r="C16" s="57">
+        <v>0</v>
+      </c>
+      <c r="D16" s="57">
+        <v>0</v>
+      </c>
+      <c r="E16" s="57">
+        <v>0</v>
+      </c>
+      <c r="F16" s="57">
+        <v>0</v>
+      </c>
+      <c r="G16" s="57">
+        <v>0</v>
+      </c>
+      <c r="H16" s="57">
+        <v>0</v>
+      </c>
+      <c r="I16" s="63"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="57">
+        <v>0</v>
+      </c>
+      <c r="B17" s="57">
+        <v>0</v>
+      </c>
+      <c r="C17" s="57">
+        <v>0</v>
+      </c>
+      <c r="D17" s="57">
+        <v>0</v>
+      </c>
+      <c r="E17" s="57">
+        <v>0</v>
+      </c>
+      <c r="F17" s="57">
+        <v>0</v>
+      </c>
+      <c r="G17" s="57">
+        <v>0</v>
+      </c>
+      <c r="H17" s="57">
+        <v>0</v>
+      </c>
+      <c r="I17" s="63"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="57">
+        <v>1</v>
+      </c>
+      <c r="B18" s="57">
+        <v>1</v>
+      </c>
+      <c r="C18" s="57">
+        <v>0</v>
+      </c>
+      <c r="D18" s="57">
+        <v>0</v>
+      </c>
+      <c r="E18" s="57">
+        <v>1</v>
+      </c>
+      <c r="F18" s="57">
+        <v>0</v>
+      </c>
+      <c r="G18" s="57">
+        <v>0</v>
+      </c>
+      <c r="H18" s="57">
+        <v>0</v>
+      </c>
+      <c r="I18" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I15:I18"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SEMI 字节数组记录.xlsx
+++ b/SEMI 字节数组记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZerosZhang\Documents\斯康泰工作区\草稿文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869DB688-8B1A-4FC5-A30A-B0136EFBBED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EB3C8F-7429-488D-8AC2-129607C91616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10305" yWindow="3165" windowWidth="28800" windowHeight="15345" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8865" yWindow="3960" windowWidth="28800" windowHeight="15345" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control Message" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>S1F13</t>
   </si>
@@ -156,6 +156,22 @@
   </si>
   <si>
     <t>8字节</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式化List数据：列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4字节</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2项</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -510,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -606,60 +622,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -678,6 +640,60 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -694,6 +710,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1028,7 +1053,7 @@
   <sheetData>
     <row r="1" spans="1:73" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="42"/>
@@ -1050,7 +1075,7 @@
       <c r="Q1" s="42"/>
       <c r="R1" s="42"/>
       <c r="S1" s="42"/>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="41" t="s">
         <v>10</v>
       </c>
       <c r="U1" s="42"/>
@@ -1072,7 +1097,7 @@
       <c r="AI1" s="42"/>
       <c r="AJ1" s="42"/>
       <c r="AK1" s="42"/>
-      <c r="AL1" s="40" t="s">
+      <c r="AL1" s="41" t="s">
         <v>12</v>
       </c>
       <c r="AM1" s="42"/>
@@ -1094,7 +1119,7 @@
       <c r="BA1" s="42"/>
       <c r="BB1" s="42"/>
       <c r="BC1" s="42"/>
-      <c r="BD1" s="40" t="s">
+      <c r="BD1" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BE1" s="42"/>
@@ -1118,7 +1143,7 @@
       <c r="BU1" s="42"/>
     </row>
     <row r="2" spans="1:73" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="43" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1">
@@ -1145,7 +1170,7 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="J2" s="43">
+      <c r="J2" s="45">
         <v>10</v>
       </c>
       <c r="K2" s="1">
@@ -1172,7 +1197,7 @@
       <c r="R2" s="1">
         <v>0</v>
       </c>
-      <c r="S2" s="43">
+      <c r="S2" s="45">
         <v>10</v>
       </c>
       <c r="T2" s="1">
@@ -1199,7 +1224,7 @@
       <c r="AA2" s="1">
         <v>0</v>
       </c>
-      <c r="AB2" s="43">
+      <c r="AB2" s="45">
         <v>10</v>
       </c>
       <c r="AC2" s="1">
@@ -1226,7 +1251,7 @@
       <c r="AJ2" s="1">
         <v>0</v>
       </c>
-      <c r="AK2" s="43">
+      <c r="AK2" s="45">
         <v>10</v>
       </c>
       <c r="AL2" s="1">
@@ -1253,7 +1278,7 @@
       <c r="AS2" s="1">
         <v>0</v>
       </c>
-      <c r="AT2" s="43">
+      <c r="AT2" s="45">
         <v>10</v>
       </c>
       <c r="AU2" s="1">
@@ -1280,7 +1305,7 @@
       <c r="BB2" s="1">
         <v>0</v>
       </c>
-      <c r="BC2" s="43">
+      <c r="BC2" s="45">
         <v>10</v>
       </c>
       <c r="BD2" s="1">
@@ -1307,7 +1332,7 @@
       <c r="BK2" s="1">
         <v>0</v>
       </c>
-      <c r="BL2" s="43">
+      <c r="BL2" s="45">
         <v>10</v>
       </c>
       <c r="BM2" s="1">
@@ -1334,12 +1359,12 @@
       <c r="BT2" s="1">
         <v>0</v>
       </c>
-      <c r="BU2" s="43">
+      <c r="BU2" s="45">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:73" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="1">
         <v>0</v>
       </c>
@@ -1364,7 +1389,7 @@
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="44"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="1">
         <v>0</v>
       </c>
@@ -1389,7 +1414,7 @@
       <c r="R3" s="1">
         <v>0</v>
       </c>
-      <c r="S3" s="44"/>
+      <c r="S3" s="46"/>
       <c r="T3" s="1">
         <v>0</v>
       </c>
@@ -1414,7 +1439,7 @@
       <c r="AA3" s="1">
         <v>0</v>
       </c>
-      <c r="AB3" s="44"/>
+      <c r="AB3" s="46"/>
       <c r="AC3" s="1">
         <v>0</v>
       </c>
@@ -1439,7 +1464,7 @@
       <c r="AJ3" s="1">
         <v>0</v>
       </c>
-      <c r="AK3" s="44"/>
+      <c r="AK3" s="46"/>
       <c r="AL3" s="1">
         <v>0</v>
       </c>
@@ -1464,7 +1489,7 @@
       <c r="AS3" s="1">
         <v>0</v>
       </c>
-      <c r="AT3" s="44"/>
+      <c r="AT3" s="46"/>
       <c r="AU3" s="1">
         <v>0</v>
       </c>
@@ -1489,7 +1514,7 @@
       <c r="BB3" s="1">
         <v>0</v>
       </c>
-      <c r="BC3" s="44"/>
+      <c r="BC3" s="46"/>
       <c r="BD3" s="1">
         <v>0</v>
       </c>
@@ -1514,7 +1539,7 @@
       <c r="BK3" s="1">
         <v>0</v>
       </c>
-      <c r="BL3" s="44"/>
+      <c r="BL3" s="46"/>
       <c r="BM3" s="1">
         <v>0</v>
       </c>
@@ -1539,10 +1564,10 @@
       <c r="BT3" s="1">
         <v>0</v>
       </c>
-      <c r="BU3" s="44"/>
+      <c r="BU3" s="46"/>
     </row>
     <row r="4" spans="1:73" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="1">
         <v>0</v>
       </c>
@@ -1567,7 +1592,7 @@
       <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="44"/>
+      <c r="J4" s="46"/>
       <c r="K4" s="1">
         <v>0</v>
       </c>
@@ -1592,7 +1617,7 @@
       <c r="R4" s="1">
         <v>0</v>
       </c>
-      <c r="S4" s="44"/>
+      <c r="S4" s="46"/>
       <c r="T4" s="1">
         <v>0</v>
       </c>
@@ -1617,7 +1642,7 @@
       <c r="AA4" s="1">
         <v>0</v>
       </c>
-      <c r="AB4" s="44"/>
+      <c r="AB4" s="46"/>
       <c r="AC4" s="1">
         <v>0</v>
       </c>
@@ -1642,7 +1667,7 @@
       <c r="AJ4" s="1">
         <v>0</v>
       </c>
-      <c r="AK4" s="44"/>
+      <c r="AK4" s="46"/>
       <c r="AL4" s="1">
         <v>0</v>
       </c>
@@ -1667,7 +1692,7 @@
       <c r="AS4" s="1">
         <v>0</v>
       </c>
-      <c r="AT4" s="44"/>
+      <c r="AT4" s="46"/>
       <c r="AU4" s="1">
         <v>0</v>
       </c>
@@ -1692,7 +1717,7 @@
       <c r="BB4" s="1">
         <v>0</v>
       </c>
-      <c r="BC4" s="44"/>
+      <c r="BC4" s="46"/>
       <c r="BD4" s="1">
         <v>0</v>
       </c>
@@ -1717,7 +1742,7 @@
       <c r="BK4" s="1">
         <v>0</v>
       </c>
-      <c r="BL4" s="44"/>
+      <c r="BL4" s="46"/>
       <c r="BM4" s="1">
         <v>0</v>
       </c>
@@ -1742,10 +1767,10 @@
       <c r="BT4" s="1">
         <v>0</v>
       </c>
-      <c r="BU4" s="44"/>
+      <c r="BU4" s="46"/>
     </row>
     <row r="5" spans="1:73" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="1">
         <v>0</v>
       </c>
@@ -1770,7 +1795,7 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="44"/>
+      <c r="J5" s="46"/>
       <c r="K5" s="1">
         <v>0</v>
       </c>
@@ -1795,7 +1820,7 @@
       <c r="R5" s="1">
         <v>0</v>
       </c>
-      <c r="S5" s="44"/>
+      <c r="S5" s="46"/>
       <c r="T5" s="1">
         <v>0</v>
       </c>
@@ -1820,7 +1845,7 @@
       <c r="AA5" s="1">
         <v>0</v>
       </c>
-      <c r="AB5" s="44"/>
+      <c r="AB5" s="46"/>
       <c r="AC5" s="1">
         <v>0</v>
       </c>
@@ -1845,7 +1870,7 @@
       <c r="AJ5" s="1">
         <v>0</v>
       </c>
-      <c r="AK5" s="44"/>
+      <c r="AK5" s="46"/>
       <c r="AL5" s="1">
         <v>0</v>
       </c>
@@ -1870,7 +1895,7 @@
       <c r="AS5" s="1">
         <v>0</v>
       </c>
-      <c r="AT5" s="44"/>
+      <c r="AT5" s="46"/>
       <c r="AU5" s="1">
         <v>0</v>
       </c>
@@ -1895,7 +1920,7 @@
       <c r="BB5" s="1">
         <v>0</v>
       </c>
-      <c r="BC5" s="44"/>
+      <c r="BC5" s="46"/>
       <c r="BD5" s="1">
         <v>0</v>
       </c>
@@ -1920,7 +1945,7 @@
       <c r="BK5" s="1">
         <v>0</v>
       </c>
-      <c r="BL5" s="44"/>
+      <c r="BL5" s="46"/>
       <c r="BM5" s="1">
         <v>0</v>
       </c>
@@ -1945,10 +1970,10 @@
       <c r="BT5" s="1">
         <v>0</v>
       </c>
-      <c r="BU5" s="44"/>
+      <c r="BU5" s="46"/>
     </row>
     <row r="6" spans="1:73" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="50" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="8">
@@ -1975,7 +2000,7 @@
       <c r="I6" s="8">
         <v>1</v>
       </c>
-      <c r="J6" s="35"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="8">
         <v>1</v>
       </c>
@@ -2000,7 +2025,7 @@
       <c r="R6" s="8">
         <v>1</v>
       </c>
-      <c r="S6" s="35" t="s">
+      <c r="S6" s="47" t="s">
         <v>18</v>
       </c>
       <c r="T6" s="8">
@@ -2027,7 +2052,7 @@
       <c r="AA6" s="8">
         <v>1</v>
       </c>
-      <c r="AB6" s="35" t="s">
+      <c r="AB6" s="47" t="s">
         <v>18</v>
       </c>
       <c r="AC6" s="8">
@@ -2054,7 +2079,7 @@
       <c r="AJ6" s="8">
         <v>1</v>
       </c>
-      <c r="AK6" s="35" t="s">
+      <c r="AK6" s="47" t="s">
         <v>19</v>
       </c>
       <c r="AL6" s="8">
@@ -2081,7 +2106,7 @@
       <c r="AS6" s="8">
         <v>1</v>
       </c>
-      <c r="AT6" s="35" t="s">
+      <c r="AT6" s="47" t="s">
         <v>20</v>
       </c>
       <c r="AU6" s="8">
@@ -2108,7 +2133,7 @@
       <c r="BB6" s="8">
         <v>1</v>
       </c>
-      <c r="BC6" s="35" t="s">
+      <c r="BC6" s="47" t="s">
         <v>20</v>
       </c>
       <c r="BD6" s="8">
@@ -2135,7 +2160,7 @@
       <c r="BK6" s="8">
         <v>1</v>
       </c>
-      <c r="BL6" s="35" t="s">
+      <c r="BL6" s="47" t="s">
         <v>21</v>
       </c>
       <c r="BM6" s="8">
@@ -2162,10 +2187,10 @@
       <c r="BT6" s="8">
         <v>1</v>
       </c>
-      <c r="BU6" s="35"/>
+      <c r="BU6" s="47"/>
     </row>
     <row r="7" spans="1:73" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="8">
         <v>1</v>
       </c>
@@ -2190,7 +2215,7 @@
       <c r="I7" s="8">
         <v>1</v>
       </c>
-      <c r="J7" s="36"/>
+      <c r="J7" s="48"/>
       <c r="K7" s="8">
         <v>1</v>
       </c>
@@ -2215,7 +2240,7 @@
       <c r="R7" s="8">
         <v>1</v>
       </c>
-      <c r="S7" s="36"/>
+      <c r="S7" s="48"/>
       <c r="T7" s="8">
         <v>1</v>
       </c>
@@ -2240,7 +2265,7 @@
       <c r="AA7" s="8">
         <v>1</v>
       </c>
-      <c r="AB7" s="36"/>
+      <c r="AB7" s="48"/>
       <c r="AC7" s="8">
         <v>1</v>
       </c>
@@ -2265,7 +2290,7 @@
       <c r="AJ7" s="8">
         <v>1</v>
       </c>
-      <c r="AK7" s="36"/>
+      <c r="AK7" s="48"/>
       <c r="AL7" s="8">
         <v>1</v>
       </c>
@@ -2290,7 +2315,7 @@
       <c r="AS7" s="8">
         <v>1</v>
       </c>
-      <c r="AT7" s="36"/>
+      <c r="AT7" s="48"/>
       <c r="AU7" s="8">
         <v>1</v>
       </c>
@@ -2315,7 +2340,7 @@
       <c r="BB7" s="8">
         <v>1</v>
       </c>
-      <c r="BC7" s="36"/>
+      <c r="BC7" s="48"/>
       <c r="BD7" s="8">
         <v>1</v>
       </c>
@@ -2340,7 +2365,7 @@
       <c r="BK7" s="8">
         <v>1</v>
       </c>
-      <c r="BL7" s="36"/>
+      <c r="BL7" s="48"/>
       <c r="BM7" s="8">
         <v>1</v>
       </c>
@@ -2365,7 +2390,7 @@
       <c r="BT7" s="8">
         <v>1</v>
       </c>
-      <c r="BU7" s="36"/>
+      <c r="BU7" s="48"/>
     </row>
     <row r="8" spans="1:73" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
@@ -3252,7 +3277,7 @@
       </c>
     </row>
     <row r="12" spans="1:73" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="43" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="2">
@@ -3279,7 +3304,7 @@
       <c r="I12" s="2">
         <v>0</v>
       </c>
-      <c r="J12" s="39" t="s">
+      <c r="J12" s="49" t="s">
         <v>31</v>
       </c>
       <c r="K12" s="2">
@@ -3306,7 +3331,7 @@
       <c r="R12" s="2">
         <v>0</v>
       </c>
-      <c r="S12" s="39" t="s">
+      <c r="S12" s="49" t="s">
         <v>18</v>
       </c>
       <c r="T12" s="2">
@@ -3333,7 +3358,7 @@
       <c r="AA12" s="2">
         <v>0</v>
       </c>
-      <c r="AB12" s="39" t="s">
+      <c r="AB12" s="49" t="s">
         <v>31</v>
       </c>
       <c r="AC12" s="2">
@@ -3360,7 +3385,7 @@
       <c r="AJ12" s="2">
         <v>0</v>
       </c>
-      <c r="AK12" s="39" t="s">
+      <c r="AK12" s="49" t="s">
         <v>19</v>
       </c>
       <c r="AL12" s="2">
@@ -3387,7 +3412,7 @@
       <c r="AS12" s="2">
         <v>0</v>
       </c>
-      <c r="AT12" s="39" t="s">
+      <c r="AT12" s="49" t="s">
         <v>31</v>
       </c>
       <c r="AU12" s="2">
@@ -3414,7 +3439,7 @@
       <c r="BB12" s="2">
         <v>0</v>
       </c>
-      <c r="BC12" s="39" t="s">
+      <c r="BC12" s="49" t="s">
         <v>32</v>
       </c>
       <c r="BD12" s="2">
@@ -3441,7 +3466,7 @@
       <c r="BK12" s="2">
         <v>0</v>
       </c>
-      <c r="BL12" s="39" t="s">
+      <c r="BL12" s="49" t="s">
         <v>21</v>
       </c>
       <c r="BM12" s="2">
@@ -3468,12 +3493,12 @@
       <c r="BT12" s="2">
         <v>0</v>
       </c>
-      <c r="BU12" s="39" t="s">
+      <c r="BU12" s="49" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:73" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="2">
         <v>0</v>
       </c>
@@ -3498,7 +3523,7 @@
       <c r="I13" s="2">
         <v>0</v>
       </c>
-      <c r="J13" s="40"/>
+      <c r="J13" s="41"/>
       <c r="K13" s="2">
         <v>0</v>
       </c>
@@ -3523,7 +3548,7 @@
       <c r="R13" s="2">
         <v>0</v>
       </c>
-      <c r="S13" s="40"/>
+      <c r="S13" s="41"/>
       <c r="T13" s="2">
         <v>0</v>
       </c>
@@ -3548,7 +3573,7 @@
       <c r="AA13" s="2">
         <v>0</v>
       </c>
-      <c r="AB13" s="40"/>
+      <c r="AB13" s="41"/>
       <c r="AC13" s="2">
         <v>0</v>
       </c>
@@ -3573,7 +3598,7 @@
       <c r="AJ13" s="2">
         <v>0</v>
       </c>
-      <c r="AK13" s="40"/>
+      <c r="AK13" s="41"/>
       <c r="AL13" s="2">
         <v>0</v>
       </c>
@@ -3598,7 +3623,7 @@
       <c r="AS13" s="2">
         <v>0</v>
       </c>
-      <c r="AT13" s="40"/>
+      <c r="AT13" s="41"/>
       <c r="AU13" s="2">
         <v>0</v>
       </c>
@@ -3623,7 +3648,7 @@
       <c r="BB13" s="2">
         <v>0</v>
       </c>
-      <c r="BC13" s="40"/>
+      <c r="BC13" s="41"/>
       <c r="BD13" s="2">
         <v>0</v>
       </c>
@@ -3648,7 +3673,7 @@
       <c r="BK13" s="2">
         <v>0</v>
       </c>
-      <c r="BL13" s="40"/>
+      <c r="BL13" s="41"/>
       <c r="BM13" s="2">
         <v>0</v>
       </c>
@@ -3673,10 +3698,10 @@
       <c r="BT13" s="2">
         <v>0</v>
       </c>
-      <c r="BU13" s="40"/>
+      <c r="BU13" s="41"/>
     </row>
     <row r="14" spans="1:73" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="2">
         <v>0</v>
       </c>
@@ -3701,7 +3726,7 @@
       <c r="I14" s="2">
         <v>0</v>
       </c>
-      <c r="J14" s="40"/>
+      <c r="J14" s="41"/>
       <c r="K14" s="2">
         <v>0</v>
       </c>
@@ -3726,7 +3751,7 @@
       <c r="R14" s="2">
         <v>0</v>
       </c>
-      <c r="S14" s="40"/>
+      <c r="S14" s="41"/>
       <c r="T14" s="2">
         <v>0</v>
       </c>
@@ -3751,7 +3776,7 @@
       <c r="AA14" s="2">
         <v>0</v>
       </c>
-      <c r="AB14" s="40"/>
+      <c r="AB14" s="41"/>
       <c r="AC14" s="2">
         <v>0</v>
       </c>
@@ -3776,7 +3801,7 @@
       <c r="AJ14" s="2">
         <v>0</v>
       </c>
-      <c r="AK14" s="40"/>
+      <c r="AK14" s="41"/>
       <c r="AL14" s="2">
         <v>0</v>
       </c>
@@ -3801,7 +3826,7 @@
       <c r="AS14" s="2">
         <v>0</v>
       </c>
-      <c r="AT14" s="40"/>
+      <c r="AT14" s="41"/>
       <c r="AU14" s="2">
         <v>0</v>
       </c>
@@ -3826,7 +3851,7 @@
       <c r="BB14" s="2">
         <v>0</v>
       </c>
-      <c r="BC14" s="40"/>
+      <c r="BC14" s="41"/>
       <c r="BD14" s="2">
         <v>0</v>
       </c>
@@ -3851,7 +3876,7 @@
       <c r="BK14" s="2">
         <v>0</v>
       </c>
-      <c r="BL14" s="40"/>
+      <c r="BL14" s="41"/>
       <c r="BM14" s="2">
         <v>0</v>
       </c>
@@ -3876,10 +3901,10 @@
       <c r="BT14" s="2">
         <v>0</v>
       </c>
-      <c r="BU14" s="40"/>
+      <c r="BU14" s="41"/>
     </row>
     <row r="15" spans="1:73" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="2">
         <v>0</v>
       </c>
@@ -3904,7 +3929,7 @@
       <c r="I15" s="2">
         <v>1</v>
       </c>
-      <c r="J15" s="40"/>
+      <c r="J15" s="41"/>
       <c r="K15" s="2">
         <v>0</v>
       </c>
@@ -3929,7 +3954,7 @@
       <c r="R15" s="2">
         <v>1</v>
       </c>
-      <c r="S15" s="40"/>
+      <c r="S15" s="41"/>
       <c r="T15" s="2">
         <v>0</v>
       </c>
@@ -3954,7 +3979,7 @@
       <c r="AA15" s="2">
         <v>0</v>
       </c>
-      <c r="AB15" s="40"/>
+      <c r="AB15" s="41"/>
       <c r="AC15" s="2">
         <v>0</v>
       </c>
@@ -3979,7 +4004,7 @@
       <c r="AJ15" s="2">
         <v>0</v>
       </c>
-      <c r="AK15" s="40"/>
+      <c r="AK15" s="41"/>
       <c r="AL15" s="2">
         <v>0</v>
       </c>
@@ -4004,7 +4029,7 @@
       <c r="AS15" s="2">
         <v>0</v>
       </c>
-      <c r="AT15" s="40"/>
+      <c r="AT15" s="41"/>
       <c r="AU15" s="2">
         <v>0</v>
       </c>
@@ -4029,7 +4054,7 @@
       <c r="BB15" s="2">
         <v>0</v>
       </c>
-      <c r="BC15" s="40"/>
+      <c r="BC15" s="41"/>
       <c r="BD15" s="2">
         <v>0</v>
       </c>
@@ -4054,7 +4079,7 @@
       <c r="BK15" s="2">
         <v>0</v>
       </c>
-      <c r="BL15" s="40"/>
+      <c r="BL15" s="41"/>
       <c r="BM15" s="2">
         <v>0</v>
       </c>
@@ -4079,7 +4104,7 @@
       <c r="BT15" s="2">
         <v>0</v>
       </c>
-      <c r="BU15" s="40"/>
+      <c r="BU15" s="41"/>
     </row>
     <row r="16" spans="1:73" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
@@ -6333,16 +6358,18 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="AC1:AK1"/>
-    <mergeCell ref="AL1:AT1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="AB2:AB5"/>
-    <mergeCell ref="AK2:AK5"/>
+    <mergeCell ref="AT12:AT15"/>
+    <mergeCell ref="BC12:BC15"/>
+    <mergeCell ref="BL12:BL15"/>
+    <mergeCell ref="BU12:BU15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="S12:S15"/>
+    <mergeCell ref="AB12:AB15"/>
+    <mergeCell ref="AK12:AK15"/>
     <mergeCell ref="AB6:AB7"/>
     <mergeCell ref="AK6:AK7"/>
     <mergeCell ref="AU1:BC1"/>
@@ -6356,18 +6383,16 @@
     <mergeCell ref="BC6:BC7"/>
     <mergeCell ref="BL6:BL7"/>
     <mergeCell ref="BU6:BU7"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="S12:S15"/>
-    <mergeCell ref="AB12:AB15"/>
-    <mergeCell ref="AK12:AK15"/>
-    <mergeCell ref="AT12:AT15"/>
-    <mergeCell ref="BC12:BC15"/>
-    <mergeCell ref="BL12:BL15"/>
-    <mergeCell ref="BU12:BU15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="AB2:AB5"/>
+    <mergeCell ref="AK2:AK5"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AK1"/>
+    <mergeCell ref="AL1:AT1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6396,28 +6421,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24">
@@ -6444,7 +6469,7 @@
       <c r="H2" s="24">
         <v>0</v>
       </c>
-      <c r="I2" s="46">
+      <c r="I2" s="51">
         <v>12</v>
       </c>
       <c r="J2" s="24">
@@ -6471,7 +6496,7 @@
       <c r="Q2" s="24">
         <v>0</v>
       </c>
-      <c r="R2" s="46">
+      <c r="R2" s="51">
         <v>23</v>
       </c>
     </row>
@@ -6500,7 +6525,7 @@
       <c r="H3" s="24">
         <v>0</v>
       </c>
-      <c r="I3" s="46"/>
+      <c r="I3" s="51"/>
       <c r="J3" s="24">
         <v>0</v>
       </c>
@@ -6525,7 +6550,7 @@
       <c r="Q3" s="24">
         <v>0</v>
       </c>
-      <c r="R3" s="46"/>
+      <c r="R3" s="51"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
@@ -6552,7 +6577,7 @@
       <c r="H4" s="24">
         <v>0</v>
       </c>
-      <c r="I4" s="46"/>
+      <c r="I4" s="51"/>
       <c r="J4" s="24">
         <v>0</v>
       </c>
@@ -6577,7 +6602,7 @@
       <c r="Q4" s="24">
         <v>0</v>
       </c>
-      <c r="R4" s="46"/>
+      <c r="R4" s="51"/>
     </row>
     <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
@@ -6604,7 +6629,7 @@
       <c r="H5" s="24">
         <v>0</v>
       </c>
-      <c r="I5" s="46"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="24">
         <v>0</v>
       </c>
@@ -6629,7 +6654,7 @@
       <c r="Q5" s="24">
         <v>1</v>
       </c>
-      <c r="R5" s="46"/>
+      <c r="R5" s="51"/>
     </row>
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25">
@@ -6656,7 +6681,7 @@
       <c r="H6" s="25">
         <v>1</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="51" t="s">
         <v>2</v>
       </c>
       <c r="J6" s="25">
@@ -6683,7 +6708,7 @@
       <c r="Q6" s="25">
         <v>1</v>
       </c>
-      <c r="R6" s="46" t="s">
+      <c r="R6" s="51" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6712,7 +6737,7 @@
       <c r="H7" s="25">
         <v>1</v>
       </c>
-      <c r="I7" s="46"/>
+      <c r="I7" s="51"/>
       <c r="J7" s="25">
         <v>1</v>
       </c>
@@ -6737,7 +6762,7 @@
       <c r="Q7" s="25">
         <v>1</v>
       </c>
-      <c r="R7" s="46"/>
+      <c r="R7" s="51"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25">
@@ -6764,7 +6789,7 @@
       <c r="H8" s="25">
         <v>1</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="51" t="s">
         <v>0</v>
       </c>
       <c r="J8" s="25">
@@ -6791,7 +6816,7 @@
       <c r="Q8" s="25">
         <v>1</v>
       </c>
-      <c r="R8" s="46" t="s">
+      <c r="R8" s="51" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6820,7 +6845,7 @@
       <c r="H9" s="25">
         <v>1</v>
       </c>
-      <c r="I9" s="46"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="25">
         <v>0</v>
       </c>
@@ -6845,7 +6870,7 @@
       <c r="Q9" s="25">
         <v>0</v>
       </c>
-      <c r="R9" s="46"/>
+      <c r="R9" s="51"/>
     </row>
     <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25">
@@ -6984,7 +7009,7 @@
       <c r="H12" s="25">
         <v>0</v>
       </c>
-      <c r="I12" s="46"/>
+      <c r="I12" s="51"/>
       <c r="J12" s="25">
         <v>0</v>
       </c>
@@ -7009,7 +7034,7 @@
       <c r="Q12" s="25">
         <v>0</v>
       </c>
-      <c r="R12" s="46"/>
+      <c r="R12" s="51"/>
     </row>
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25">
@@ -7036,7 +7061,7 @@
       <c r="H13" s="25">
         <v>0</v>
       </c>
-      <c r="I13" s="46"/>
+      <c r="I13" s="51"/>
       <c r="J13" s="25">
         <v>0</v>
       </c>
@@ -7061,7 +7086,7 @@
       <c r="Q13" s="25">
         <v>0</v>
       </c>
-      <c r="R13" s="46"/>
+      <c r="R13" s="51"/>
     </row>
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25">
@@ -7088,7 +7113,7 @@
       <c r="H14" s="25">
         <v>0</v>
       </c>
-      <c r="I14" s="46"/>
+      <c r="I14" s="51"/>
       <c r="J14" s="25">
         <v>0</v>
       </c>
@@ -7113,7 +7138,7 @@
       <c r="Q14" s="25">
         <v>0</v>
       </c>
-      <c r="R14" s="46"/>
+      <c r="R14" s="51"/>
     </row>
     <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25">
@@ -7140,7 +7165,7 @@
       <c r="H15" s="25">
         <v>0</v>
       </c>
-      <c r="I15" s="46"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="25">
         <v>0</v>
       </c>
@@ -7165,7 +7190,7 @@
       <c r="Q15" s="25">
         <v>0</v>
       </c>
-      <c r="R15" s="46"/>
+      <c r="R15" s="51"/>
     </row>
     <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="27">
@@ -7192,7 +7217,7 @@
       <c r="H16" s="27">
         <v>1</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="51" t="s">
         <v>3</v>
       </c>
       <c r="J16" s="30">
@@ -7219,7 +7244,7 @@
       <c r="Q16" s="30">
         <v>1</v>
       </c>
-      <c r="R16" s="46" t="s">
+      <c r="R16" s="51" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7248,7 +7273,7 @@
       <c r="H17" s="27">
         <v>0</v>
       </c>
-      <c r="I17" s="46"/>
+      <c r="I17" s="51"/>
       <c r="J17" s="30">
         <v>0</v>
       </c>
@@ -7273,7 +7298,7 @@
       <c r="Q17" s="30">
         <v>0</v>
       </c>
-      <c r="R17" s="46"/>
+      <c r="R17" s="51"/>
     </row>
     <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="26"/>
@@ -7309,7 +7334,7 @@
       <c r="Q18" s="31">
         <v>1</v>
       </c>
-      <c r="R18" s="45" t="s">
+      <c r="R18" s="52" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7347,7 +7372,7 @@
       <c r="Q19" s="31">
         <v>1</v>
       </c>
-      <c r="R19" s="46"/>
+      <c r="R19" s="51"/>
     </row>
     <row r="20" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="26"/>
@@ -7383,7 +7408,7 @@
       <c r="Q20" s="31">
         <v>0</v>
       </c>
-      <c r="R20" s="46"/>
+      <c r="R20" s="51"/>
     </row>
     <row r="21" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="26"/>
@@ -7419,7 +7444,7 @@
       <c r="Q21" s="30">
         <v>1</v>
       </c>
-      <c r="R21" s="46" t="s">
+      <c r="R21" s="51" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7457,7 +7482,7 @@
       <c r="Q22" s="30">
         <v>0</v>
       </c>
-      <c r="R22" s="46"/>
+      <c r="R22" s="51"/>
     </row>
     <row r="23" spans="1:18" s="32" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="28"/>
@@ -7493,7 +7518,7 @@
       <c r="Q23" s="30">
         <v>1</v>
       </c>
-      <c r="R23" s="45" t="s">
+      <c r="R23" s="52" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7531,7 +7556,7 @@
       <c r="Q24" s="30">
         <v>1</v>
       </c>
-      <c r="R24" s="45"/>
+      <c r="R24" s="52"/>
     </row>
     <row r="25" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="26"/>
@@ -7567,7 +7592,7 @@
       <c r="Q25" s="33">
         <v>1</v>
       </c>
-      <c r="R25" s="45"/>
+      <c r="R25" s="52"/>
     </row>
     <row r="26" spans="1:18" s="32" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="28"/>
@@ -7603,7 +7628,7 @@
       <c r="Q26" s="30">
         <v>1</v>
       </c>
-      <c r="R26" s="45" t="s">
+      <c r="R26" s="52" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7641,7 +7666,7 @@
       <c r="Q27" s="30">
         <v>1</v>
       </c>
-      <c r="R27" s="45"/>
+      <c r="R27" s="52"/>
     </row>
     <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="26"/>
@@ -7677,16 +7702,10 @@
       <c r="Q28" s="33">
         <v>0</v>
       </c>
-      <c r="R28" s="45"/>
+      <c r="R28" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="R6:R7"/>
     <mergeCell ref="R18:R20"/>
     <mergeCell ref="R21:R22"/>
     <mergeCell ref="R23:R25"/>
@@ -7697,6 +7716,12 @@
     <mergeCell ref="R12:R15"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="R16:R17"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="R6:R7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7735,17 +7760,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="24">
@@ -7772,7 +7797,7 @@
       <c r="H2" s="24">
         <v>0</v>
       </c>
-      <c r="I2" s="50">
+      <c r="I2" s="53">
         <v>12</v>
       </c>
     </row>
@@ -7801,7 +7826,7 @@
       <c r="H3" s="24">
         <v>0</v>
       </c>
-      <c r="I3" s="51"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
@@ -7828,7 +7853,7 @@
       <c r="H4" s="24">
         <v>0</v>
       </c>
-      <c r="I4" s="51"/>
+      <c r="I4" s="58"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
@@ -7855,7 +7880,7 @@
       <c r="H5" s="24">
         <v>0</v>
       </c>
-      <c r="I5" s="52"/>
+      <c r="I5" s="54"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="25">
@@ -7882,7 +7907,7 @@
       <c r="H6" s="25">
         <v>1</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="53" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7911,7 +7936,7 @@
       <c r="H7" s="25">
         <v>1</v>
       </c>
-      <c r="I7" s="52"/>
+      <c r="I7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="25">
@@ -7938,7 +7963,7 @@
       <c r="H8" s="25">
         <v>1</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="53" t="s">
         <v>33</v>
       </c>
     </row>
@@ -7967,7 +7992,7 @@
       <c r="H9" s="25">
         <v>0</v>
       </c>
-      <c r="I9" s="52"/>
+      <c r="I9" s="54"/>
     </row>
     <row r="10" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="25">
@@ -8052,7 +8077,7 @@
       <c r="H12" s="25">
         <v>0</v>
       </c>
-      <c r="I12" s="50"/>
+      <c r="I12" s="53"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="25">
@@ -8079,7 +8104,7 @@
       <c r="H13" s="25">
         <v>0</v>
       </c>
-      <c r="I13" s="51"/>
+      <c r="I13" s="58"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="25">
@@ -8106,7 +8131,7 @@
       <c r="H14" s="25">
         <v>0</v>
       </c>
-      <c r="I14" s="51"/>
+      <c r="I14" s="58"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="25">
@@ -8133,7 +8158,7 @@
       <c r="H15" s="25">
         <v>0</v>
       </c>
-      <c r="I15" s="52"/>
+      <c r="I15" s="54"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="27">
@@ -8160,7 +8185,7 @@
       <c r="H16" s="27">
         <v>1</v>
       </c>
-      <c r="I16" s="50" t="s">
+      <c r="I16" s="53" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8189,7 +8214,7 @@
       <c r="H17" s="27">
         <v>0</v>
       </c>
-      <c r="I17" s="52"/>
+      <c r="I17" s="54"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="26"/>
@@ -8328,19 +8353,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2F8C13-A75E-4048-BEF3-68A35EC678C6}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="3.125" style="53" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="53"/>
+    <col min="1" max="8" width="3.125" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="59" t="s">
         <v>37</v>
       </c>
@@ -8352,151 +8377,320 @@
       <c r="G1" s="60"/>
       <c r="H1" s="60"/>
       <c r="I1" s="61"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="54">
-        <v>0</v>
-      </c>
-      <c r="B2" s="54">
-        <v>1</v>
-      </c>
-      <c r="C2" s="54">
-        <v>0</v>
-      </c>
-      <c r="D2" s="54">
-        <v>0</v>
-      </c>
-      <c r="E2" s="54">
-        <v>0</v>
-      </c>
-      <c r="F2" s="54">
-        <v>0</v>
-      </c>
-      <c r="G2" s="55">
-        <v>0</v>
-      </c>
-      <c r="H2" s="55">
-        <v>1</v>
-      </c>
-      <c r="I2" s="58"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="56">
-        <v>0</v>
-      </c>
-      <c r="B3" s="56">
-        <v>0</v>
-      </c>
-      <c r="C3" s="56">
-        <v>0</v>
-      </c>
-      <c r="D3" s="56">
-        <v>0</v>
-      </c>
-      <c r="E3" s="56">
-        <v>0</v>
-      </c>
-      <c r="F3" s="56">
-        <v>0</v>
-      </c>
-      <c r="G3" s="56">
-        <v>1</v>
-      </c>
-      <c r="H3" s="56">
-        <v>1</v>
-      </c>
-      <c r="I3" s="58" t="s">
+      <c r="K1" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="61"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" s="36">
+        <v>0</v>
+      </c>
+      <c r="B2" s="36">
+        <v>1</v>
+      </c>
+      <c r="C2" s="36">
+        <v>0</v>
+      </c>
+      <c r="D2" s="36">
+        <v>0</v>
+      </c>
+      <c r="E2" s="36">
+        <v>0</v>
+      </c>
+      <c r="F2" s="36">
+        <v>0</v>
+      </c>
+      <c r="G2" s="37">
+        <v>0</v>
+      </c>
+      <c r="H2" s="37">
+        <v>1</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="K2" s="36">
+        <v>0</v>
+      </c>
+      <c r="L2" s="36">
+        <v>0</v>
+      </c>
+      <c r="M2" s="36">
+        <v>0</v>
+      </c>
+      <c r="N2" s="36">
+        <v>0</v>
+      </c>
+      <c r="O2" s="36">
+        <v>0</v>
+      </c>
+      <c r="P2" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="37">
+        <v>0</v>
+      </c>
+      <c r="R2" s="37">
+        <v>1</v>
+      </c>
+      <c r="S2" s="40"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A3" s="38">
+        <v>0</v>
+      </c>
+      <c r="B3" s="38">
+        <v>0</v>
+      </c>
+      <c r="C3" s="38">
+        <v>0</v>
+      </c>
+      <c r="D3" s="38">
+        <v>0</v>
+      </c>
+      <c r="E3" s="38">
+        <v>0</v>
+      </c>
+      <c r="F3" s="38">
+        <v>0</v>
+      </c>
+      <c r="G3" s="38">
+        <v>1</v>
+      </c>
+      <c r="H3" s="38">
+        <v>1</v>
+      </c>
+      <c r="I3" s="40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="57">
-        <v>0</v>
-      </c>
-      <c r="B4" s="57">
-        <v>1</v>
-      </c>
-      <c r="C4" s="57">
-        <v>0</v>
-      </c>
-      <c r="D4" s="57">
-        <v>0</v>
-      </c>
-      <c r="E4" s="57">
-        <v>0</v>
-      </c>
-      <c r="F4" s="57">
-        <v>0</v>
-      </c>
-      <c r="G4" s="57">
-        <v>0</v>
-      </c>
-      <c r="H4" s="57">
-        <v>1</v>
-      </c>
-      <c r="I4" s="58" t="s">
+      <c r="K3" s="38">
+        <v>0</v>
+      </c>
+      <c r="L3" s="38">
+        <v>0</v>
+      </c>
+      <c r="M3" s="38">
+        <v>0</v>
+      </c>
+      <c r="N3" s="38">
+        <v>0</v>
+      </c>
+      <c r="O3" s="38">
+        <v>0</v>
+      </c>
+      <c r="P3" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="38">
+        <v>1</v>
+      </c>
+      <c r="R3" s="38">
+        <v>0</v>
+      </c>
+      <c r="S3" s="40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A4" s="39">
+        <v>0</v>
+      </c>
+      <c r="B4" s="39">
+        <v>1</v>
+      </c>
+      <c r="C4" s="39">
+        <v>0</v>
+      </c>
+      <c r="D4" s="39">
+        <v>0</v>
+      </c>
+      <c r="E4" s="39">
+        <v>0</v>
+      </c>
+      <c r="F4" s="39">
+        <v>0</v>
+      </c>
+      <c r="G4" s="39">
+        <v>0</v>
+      </c>
+      <c r="H4" s="39">
+        <v>1</v>
+      </c>
+      <c r="I4" s="40" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="57">
-        <v>0</v>
-      </c>
-      <c r="B5" s="57">
-        <v>1</v>
-      </c>
-      <c r="C5" s="57">
-        <v>0</v>
-      </c>
-      <c r="D5" s="57">
-        <v>0</v>
-      </c>
-      <c r="E5" s="57">
-        <v>0</v>
-      </c>
-      <c r="F5" s="57">
-        <v>0</v>
-      </c>
-      <c r="G5" s="57">
-        <v>1</v>
-      </c>
-      <c r="H5" s="57">
-        <v>0</v>
-      </c>
-      <c r="I5" s="58" t="s">
+      <c r="K4" s="36">
+        <v>0</v>
+      </c>
+      <c r="L4" s="36">
+        <v>1</v>
+      </c>
+      <c r="M4" s="36">
+        <v>0</v>
+      </c>
+      <c r="N4" s="36">
+        <v>0</v>
+      </c>
+      <c r="O4" s="36">
+        <v>0</v>
+      </c>
+      <c r="P4" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="37">
+        <v>0</v>
+      </c>
+      <c r="R4" s="37">
+        <v>1</v>
+      </c>
+      <c r="S4" s="40"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A5" s="39">
+        <v>0</v>
+      </c>
+      <c r="B5" s="39">
+        <v>1</v>
+      </c>
+      <c r="C5" s="39">
+        <v>0</v>
+      </c>
+      <c r="D5" s="39">
+        <v>0</v>
+      </c>
+      <c r="E5" s="39">
+        <v>0</v>
+      </c>
+      <c r="F5" s="39">
+        <v>0</v>
+      </c>
+      <c r="G5" s="39">
+        <v>1</v>
+      </c>
+      <c r="H5" s="39">
+        <v>0</v>
+      </c>
+      <c r="I5" s="40" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="57">
-        <v>0</v>
-      </c>
-      <c r="B6" s="57">
-        <v>1</v>
-      </c>
-      <c r="C6" s="57">
-        <v>0</v>
-      </c>
-      <c r="D6" s="57">
-        <v>0</v>
-      </c>
-      <c r="E6" s="57">
-        <v>0</v>
-      </c>
-      <c r="F6" s="57">
-        <v>0</v>
-      </c>
-      <c r="G6" s="57">
-        <v>1</v>
-      </c>
-      <c r="H6" s="57">
-        <v>1</v>
-      </c>
-      <c r="I6" s="58" t="s">
+      <c r="K5" s="38">
+        <v>0</v>
+      </c>
+      <c r="L5" s="38">
+        <v>0</v>
+      </c>
+      <c r="M5" s="38">
+        <v>0</v>
+      </c>
+      <c r="N5" s="38">
+        <v>0</v>
+      </c>
+      <c r="O5" s="38">
+        <v>0</v>
+      </c>
+      <c r="P5" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="38">
+        <v>1</v>
+      </c>
+      <c r="R5" s="38">
+        <v>1</v>
+      </c>
+      <c r="S5" s="40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A6" s="39">
+        <v>0</v>
+      </c>
+      <c r="B6" s="39">
+        <v>1</v>
+      </c>
+      <c r="C6" s="39">
+        <v>0</v>
+      </c>
+      <c r="D6" s="39">
+        <v>0</v>
+      </c>
+      <c r="E6" s="39">
+        <v>0</v>
+      </c>
+      <c r="F6" s="39">
+        <v>0</v>
+      </c>
+      <c r="G6" s="39">
+        <v>1</v>
+      </c>
+      <c r="H6" s="39">
+        <v>1</v>
+      </c>
+      <c r="I6" s="40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K6" s="39">
+        <v>0</v>
+      </c>
+      <c r="L6" s="39">
+        <v>1</v>
+      </c>
+      <c r="M6" s="39">
+        <v>0</v>
+      </c>
+      <c r="N6" s="39">
+        <v>0</v>
+      </c>
+      <c r="O6" s="39">
+        <v>0</v>
+      </c>
+      <c r="P6" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="39">
+        <v>0</v>
+      </c>
+      <c r="R6" s="39">
+        <v>1</v>
+      </c>
+      <c r="S6" s="62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="K7" s="39">
+        <v>0</v>
+      </c>
+      <c r="L7" s="39">
+        <v>1</v>
+      </c>
+      <c r="M7" s="39">
+        <v>0</v>
+      </c>
+      <c r="N7" s="39">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0</v>
+      </c>
+      <c r="P7" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="39">
+        <v>1</v>
+      </c>
+      <c r="R7" s="39">
+        <v>0</v>
+      </c>
+      <c r="S7" s="63"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="59" t="s">
         <v>39</v>
       </c>
@@ -8508,289 +8702,470 @@
       <c r="G8" s="60"/>
       <c r="H8" s="60"/>
       <c r="I8" s="61"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="54">
-        <v>0</v>
-      </c>
-      <c r="B9" s="54">
-        <v>1</v>
-      </c>
-      <c r="C9" s="54">
-        <v>1</v>
-      </c>
-      <c r="D9" s="54">
-        <v>1</v>
-      </c>
-      <c r="E9" s="54">
-        <v>0</v>
-      </c>
-      <c r="F9" s="54">
-        <v>0</v>
-      </c>
-      <c r="G9" s="55">
-        <v>0</v>
-      </c>
-      <c r="H9" s="55">
-        <v>1</v>
-      </c>
-      <c r="I9" s="58"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="56">
-        <v>0</v>
-      </c>
-      <c r="B10" s="56">
-        <v>0</v>
-      </c>
-      <c r="C10" s="56">
-        <v>0</v>
-      </c>
-      <c r="D10" s="56">
-        <v>0</v>
-      </c>
-      <c r="E10" s="56">
-        <v>1</v>
-      </c>
-      <c r="F10" s="56">
-        <v>0</v>
-      </c>
-      <c r="G10" s="56">
-        <v>0</v>
-      </c>
-      <c r="H10" s="56">
-        <v>0</v>
-      </c>
-      <c r="I10" s="58" t="s">
+      <c r="K8" s="39">
+        <v>0</v>
+      </c>
+      <c r="L8" s="39">
+        <v>1</v>
+      </c>
+      <c r="M8" s="39">
+        <v>0</v>
+      </c>
+      <c r="N8" s="39">
+        <v>0</v>
+      </c>
+      <c r="O8" s="39">
+        <v>0</v>
+      </c>
+      <c r="P8" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="39">
+        <v>1</v>
+      </c>
+      <c r="R8" s="39">
+        <v>1</v>
+      </c>
+      <c r="S8" s="64"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A9" s="36">
+        <v>0</v>
+      </c>
+      <c r="B9" s="36">
+        <v>1</v>
+      </c>
+      <c r="C9" s="36">
+        <v>1</v>
+      </c>
+      <c r="D9" s="36">
+        <v>1</v>
+      </c>
+      <c r="E9" s="36">
+        <v>0</v>
+      </c>
+      <c r="F9" s="36">
+        <v>0</v>
+      </c>
+      <c r="G9" s="37">
+        <v>0</v>
+      </c>
+      <c r="H9" s="37">
+        <v>1</v>
+      </c>
+      <c r="I9" s="40"/>
+      <c r="K9" s="36">
+        <v>0</v>
+      </c>
+      <c r="L9" s="36">
+        <v>1</v>
+      </c>
+      <c r="M9" s="36">
+        <v>1</v>
+      </c>
+      <c r="N9" s="36">
+        <v>1</v>
+      </c>
+      <c r="O9" s="36">
+        <v>0</v>
+      </c>
+      <c r="P9" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="37">
+        <v>0</v>
+      </c>
+      <c r="R9" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A10" s="38">
+        <v>0</v>
+      </c>
+      <c r="B10" s="38">
+        <v>0</v>
+      </c>
+      <c r="C10" s="38">
+        <v>0</v>
+      </c>
+      <c r="D10" s="38">
+        <v>0</v>
+      </c>
+      <c r="E10" s="38">
+        <v>1</v>
+      </c>
+      <c r="F10" s="38">
+        <v>0</v>
+      </c>
+      <c r="G10" s="38">
+        <v>0</v>
+      </c>
+      <c r="H10" s="38">
+        <v>0</v>
+      </c>
+      <c r="I10" s="40" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="57">
-        <v>0</v>
-      </c>
-      <c r="B11" s="57">
-        <v>0</v>
-      </c>
-      <c r="C11" s="57">
-        <v>0</v>
-      </c>
-      <c r="D11" s="57">
-        <v>0</v>
-      </c>
-      <c r="E11" s="57">
-        <v>0</v>
-      </c>
-      <c r="F11" s="57">
-        <v>0</v>
-      </c>
-      <c r="G11" s="57">
-        <v>0</v>
-      </c>
-      <c r="H11" s="57">
+      <c r="K10" s="38">
+        <v>0</v>
+      </c>
+      <c r="L10" s="38">
+        <v>0</v>
+      </c>
+      <c r="M10" s="38">
+        <v>0</v>
+      </c>
+      <c r="N10" s="38">
+        <v>0</v>
+      </c>
+      <c r="O10" s="38">
+        <v>0</v>
+      </c>
+      <c r="P10" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="38">
+        <v>0</v>
+      </c>
+      <c r="R10" s="38">
+        <v>0</v>
+      </c>
+      <c r="S10" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A11" s="39">
+        <v>0</v>
+      </c>
+      <c r="B11" s="39">
+        <v>0</v>
+      </c>
+      <c r="C11" s="39">
+        <v>0</v>
+      </c>
+      <c r="D11" s="39">
+        <v>0</v>
+      </c>
+      <c r="E11" s="39">
+        <v>0</v>
+      </c>
+      <c r="F11" s="39">
+        <v>0</v>
+      </c>
+      <c r="G11" s="39">
+        <v>0</v>
+      </c>
+      <c r="H11" s="39">
         <v>0</v>
       </c>
       <c r="I11" s="62">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="57">
-        <v>0</v>
-      </c>
-      <c r="B12" s="57">
-        <v>0</v>
-      </c>
-      <c r="C12" s="57">
-        <v>0</v>
-      </c>
-      <c r="D12" s="57">
-        <v>0</v>
-      </c>
-      <c r="E12" s="57">
-        <v>0</v>
-      </c>
-      <c r="F12" s="57">
-        <v>0</v>
-      </c>
-      <c r="G12" s="57">
-        <v>0</v>
-      </c>
-      <c r="H12" s="57">
+      <c r="K11" s="39">
+        <v>0</v>
+      </c>
+      <c r="L11" s="39">
+        <v>0</v>
+      </c>
+      <c r="M11" s="39">
+        <v>0</v>
+      </c>
+      <c r="N11" s="39">
+        <v>0</v>
+      </c>
+      <c r="O11" s="39">
+        <v>0</v>
+      </c>
+      <c r="P11" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="39">
+        <v>0</v>
+      </c>
+      <c r="R11" s="39">
+        <v>0</v>
+      </c>
+      <c r="S11" s="65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A12" s="39">
+        <v>0</v>
+      </c>
+      <c r="B12" s="39">
+        <v>0</v>
+      </c>
+      <c r="C12" s="39">
+        <v>0</v>
+      </c>
+      <c r="D12" s="39">
+        <v>0</v>
+      </c>
+      <c r="E12" s="39">
+        <v>0</v>
+      </c>
+      <c r="F12" s="39">
+        <v>0</v>
+      </c>
+      <c r="G12" s="39">
+        <v>0</v>
+      </c>
+      <c r="H12" s="39">
         <v>0</v>
       </c>
       <c r="I12" s="63"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="57">
-        <v>0</v>
-      </c>
-      <c r="B13" s="57">
-        <v>0</v>
-      </c>
-      <c r="C13" s="57">
-        <v>0</v>
-      </c>
-      <c r="D13" s="57">
-        <v>0</v>
-      </c>
-      <c r="E13" s="57">
-        <v>0</v>
-      </c>
-      <c r="F13" s="57">
-        <v>0</v>
-      </c>
-      <c r="G13" s="57">
-        <v>0</v>
-      </c>
-      <c r="H13" s="57">
+      <c r="K12" s="39">
+        <v>0</v>
+      </c>
+      <c r="L12" s="39">
+        <v>0</v>
+      </c>
+      <c r="M12" s="39">
+        <v>0</v>
+      </c>
+      <c r="N12" s="39">
+        <v>0</v>
+      </c>
+      <c r="O12" s="39">
+        <v>0</v>
+      </c>
+      <c r="P12" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="39">
+        <v>0</v>
+      </c>
+      <c r="R12" s="39">
+        <v>0</v>
+      </c>
+      <c r="S12" s="66"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A13" s="39">
+        <v>0</v>
+      </c>
+      <c r="B13" s="39">
+        <v>0</v>
+      </c>
+      <c r="C13" s="39">
+        <v>0</v>
+      </c>
+      <c r="D13" s="39">
+        <v>0</v>
+      </c>
+      <c r="E13" s="39">
+        <v>0</v>
+      </c>
+      <c r="F13" s="39">
+        <v>0</v>
+      </c>
+      <c r="G13" s="39">
+        <v>0</v>
+      </c>
+      <c r="H13" s="39">
         <v>0</v>
       </c>
       <c r="I13" s="63"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="57">
-        <v>0</v>
-      </c>
-      <c r="B14" s="57">
-        <v>1</v>
-      </c>
-      <c r="C14" s="57">
-        <v>1</v>
-      </c>
-      <c r="D14" s="57">
-        <v>0</v>
-      </c>
-      <c r="E14" s="57">
-        <v>0</v>
-      </c>
-      <c r="F14" s="57">
-        <v>1</v>
-      </c>
-      <c r="G14" s="57">
-        <v>0</v>
-      </c>
-      <c r="H14" s="57">
+      <c r="K13" s="39">
+        <v>0</v>
+      </c>
+      <c r="L13" s="39">
+        <v>0</v>
+      </c>
+      <c r="M13" s="39">
+        <v>0</v>
+      </c>
+      <c r="N13" s="39">
+        <v>0</v>
+      </c>
+      <c r="O13" s="39">
+        <v>0</v>
+      </c>
+      <c r="P13" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="39">
+        <v>0</v>
+      </c>
+      <c r="R13" s="39">
+        <v>0</v>
+      </c>
+      <c r="S13" s="66"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A14" s="39">
+        <v>0</v>
+      </c>
+      <c r="B14" s="39">
+        <v>1</v>
+      </c>
+      <c r="C14" s="39">
+        <v>1</v>
+      </c>
+      <c r="D14" s="39">
+        <v>0</v>
+      </c>
+      <c r="E14" s="39">
+        <v>0</v>
+      </c>
+      <c r="F14" s="39">
+        <v>1</v>
+      </c>
+      <c r="G14" s="39">
+        <v>0</v>
+      </c>
+      <c r="H14" s="39">
         <v>0</v>
       </c>
       <c r="I14" s="64"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="57">
-        <v>0</v>
-      </c>
-      <c r="B15" s="57">
-        <v>0</v>
-      </c>
-      <c r="C15" s="57">
-        <v>0</v>
-      </c>
-      <c r="D15" s="57">
-        <v>0</v>
-      </c>
-      <c r="E15" s="57">
-        <v>0</v>
-      </c>
-      <c r="F15" s="57">
-        <v>0</v>
-      </c>
-      <c r="G15" s="57">
-        <v>0</v>
-      </c>
-      <c r="H15" s="57">
+      <c r="K14" s="39">
+        <v>1</v>
+      </c>
+      <c r="L14" s="39">
+        <v>1</v>
+      </c>
+      <c r="M14" s="39">
+        <v>0</v>
+      </c>
+      <c r="N14" s="39">
+        <v>0</v>
+      </c>
+      <c r="O14" s="39">
+        <v>1</v>
+      </c>
+      <c r="P14" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="39">
+        <v>0</v>
+      </c>
+      <c r="R14" s="39">
+        <v>0</v>
+      </c>
+      <c r="S14" s="67"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A15" s="39">
+        <v>0</v>
+      </c>
+      <c r="B15" s="39">
+        <v>0</v>
+      </c>
+      <c r="C15" s="39">
+        <v>0</v>
+      </c>
+      <c r="D15" s="39">
+        <v>0</v>
+      </c>
+      <c r="E15" s="39">
+        <v>0</v>
+      </c>
+      <c r="F15" s="39">
+        <v>0</v>
+      </c>
+      <c r="G15" s="39">
+        <v>0</v>
+      </c>
+      <c r="H15" s="39">
         <v>0</v>
       </c>
       <c r="I15" s="62">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="57">
-        <v>0</v>
-      </c>
-      <c r="B16" s="57">
-        <v>0</v>
-      </c>
-      <c r="C16" s="57">
-        <v>0</v>
-      </c>
-      <c r="D16" s="57">
-        <v>0</v>
-      </c>
-      <c r="E16" s="57">
-        <v>0</v>
-      </c>
-      <c r="F16" s="57">
-        <v>0</v>
-      </c>
-      <c r="G16" s="57">
-        <v>0</v>
-      </c>
-      <c r="H16" s="57">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A16" s="39">
+        <v>0</v>
+      </c>
+      <c r="B16" s="39">
+        <v>0</v>
+      </c>
+      <c r="C16" s="39">
+        <v>0</v>
+      </c>
+      <c r="D16" s="39">
+        <v>0</v>
+      </c>
+      <c r="E16" s="39">
+        <v>0</v>
+      </c>
+      <c r="F16" s="39">
+        <v>0</v>
+      </c>
+      <c r="G16" s="39">
+        <v>0</v>
+      </c>
+      <c r="H16" s="39">
         <v>0</v>
       </c>
       <c r="I16" s="63"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="57">
-        <v>0</v>
-      </c>
-      <c r="B17" s="57">
-        <v>0</v>
-      </c>
-      <c r="C17" s="57">
-        <v>0</v>
-      </c>
-      <c r="D17" s="57">
-        <v>0</v>
-      </c>
-      <c r="E17" s="57">
-        <v>0</v>
-      </c>
-      <c r="F17" s="57">
-        <v>0</v>
-      </c>
-      <c r="G17" s="57">
-        <v>0</v>
-      </c>
-      <c r="H17" s="57">
+      <c r="A17" s="39">
+        <v>0</v>
+      </c>
+      <c r="B17" s="39">
+        <v>0</v>
+      </c>
+      <c r="C17" s="39">
+        <v>0</v>
+      </c>
+      <c r="D17" s="39">
+        <v>0</v>
+      </c>
+      <c r="E17" s="39">
+        <v>0</v>
+      </c>
+      <c r="F17" s="39">
+        <v>0</v>
+      </c>
+      <c r="G17" s="39">
+        <v>0</v>
+      </c>
+      <c r="H17" s="39">
         <v>0</v>
       </c>
       <c r="I17" s="63"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="57">
-        <v>1</v>
-      </c>
-      <c r="B18" s="57">
-        <v>1</v>
-      </c>
-      <c r="C18" s="57">
-        <v>0</v>
-      </c>
-      <c r="D18" s="57">
-        <v>0</v>
-      </c>
-      <c r="E18" s="57">
-        <v>1</v>
-      </c>
-      <c r="F18" s="57">
-        <v>0</v>
-      </c>
-      <c r="G18" s="57">
-        <v>0</v>
-      </c>
-      <c r="H18" s="57">
+      <c r="A18" s="39">
+        <v>1</v>
+      </c>
+      <c r="B18" s="39">
+        <v>1</v>
+      </c>
+      <c r="C18" s="39">
+        <v>0</v>
+      </c>
+      <c r="D18" s="39">
+        <v>0</v>
+      </c>
+      <c r="E18" s="39">
+        <v>1</v>
+      </c>
+      <c r="F18" s="39">
+        <v>0</v>
+      </c>
+      <c r="G18" s="39">
+        <v>0</v>
+      </c>
+      <c r="H18" s="39">
         <v>0</v>
       </c>
       <c r="I18" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="I11:I14"/>
     <mergeCell ref="I15:I18"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="S11:S14"/>
+    <mergeCell ref="S6:S8"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
